--- a/Куделин/Солнечная энергетика/Solar Cent.America Total.xlsx
+++ b/Куделин/Солнечная энергетика/Solar Cent.America Total.xlsx
@@ -1159,22 +1159,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>406.6554684854928</c:v>
+                  <c:v>0.1227930025133506</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>498.01581193613686</c:v>
+                  <c:v>0.1751436020903327</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>604.64739614542054</c:v>
+                  <c:v>0.24736587621505232</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>725.77977795766571</c:v>
+                  <c:v>0.34493145134293152</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>858.8689152691901</c:v>
+                  <c:v>0.47565865014201958</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1006.1736052833191</c:v>
+                  <c:v>0.65101093808913368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,22 +1246,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>26.980161057557076</c:v>
+                  <c:v>5.7373700131105743</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.558910842434496</c:v>
+                  <c:v>9.0223371448768397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.005177425982055</c:v>
+                  <c:v>14.871071414356837</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.478850100646554</c:v>
+                  <c:v>22.012768426744554</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.434867442574443</c:v>
+                  <c:v>29.95987635965114</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71.159628715733874</c:v>
+                  <c:v>42.473359892629773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,11 +1282,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627526864"/>
-        <c:axId val="1627524144"/>
+        <c:axId val="-85368144"/>
+        <c:axId val="-85353456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627526864"/>
+        <c:axId val="-85368144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1329,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627524144"/>
+        <c:crossAx val="-85353456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1337,7 +1337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627524144"/>
+        <c:axId val="-85353456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1389,7 +1389,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627526864"/>
+        <c:crossAx val="-85368144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,19 +1754,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1251.6099425365665</c:v>
+                  <c:v>21.695696589570186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1412.0859994378495</c:v>
+                  <c:v>30.39818687427352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1532.6697870532705</c:v>
+                  <c:v>39.885506965891757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1617.3813425636101</c:v>
+                  <c:v>51.205231656402944</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1793.9815725091175</c:v>
+                  <c:v>66.631901217280671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,19 +1827,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1260.4136624418018</c:v>
+                  <c:v>21.848302309157589</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1433.803783168778</c:v>
+                  <c:v>30.865708858494479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1573.2216759015998</c:v>
+                  <c:v>40.940811023427727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1682.2922056342579</c:v>
+                  <c:v>53.260266973727212</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1894.7466360660774</c:v>
+                  <c:v>70.374508089038954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,11 +1860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627542096"/>
-        <c:axId val="1627542640"/>
+        <c:axId val="-85365968"/>
+        <c:axId val="-85344208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627542096"/>
+        <c:axId val="-85365968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,7 +1907,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627542640"/>
+        <c:crossAx val="-85344208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1915,7 +1915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627542640"/>
+        <c:axId val="-85344208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1967,7 +1967,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627542096"/>
+        <c:crossAx val="-85365968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2335,19 +2335,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1282.6580547411697</c:v>
+                  <c:v>22.233891756592296</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1480.5668828869757</c:v>
+                  <c:v>31.872385112362842</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1653.0957633192304</c:v>
+                  <c:v>43.019418233539973</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1803.0274518681667</c:v>
+                  <c:v>57.082665618873577</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2075.1441216730173</c:v>
+                  <c:v>77.074815174131004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,19 +2408,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1283.0559243794983</c:v>
+                  <c:v>22.240788521041036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1481.3979198085656</c:v>
+                  <c:v>31.89027496868319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1654.5241930226655</c:v>
+                  <c:v>43.056591043605074</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1805.2120528332678</c:v>
+                  <c:v>57.151828651456547</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2078.4561924132377</c:v>
+                  <c:v>77.197831805833843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,11 +2441,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627545904"/>
-        <c:axId val="1627543184"/>
+        <c:axId val="-85352912"/>
+        <c:axId val="-85352368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627545904"/>
+        <c:axId val="-85352912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2488,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627543184"/>
+        <c:crossAx val="-85352368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2496,7 +2496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627543184"/>
+        <c:axId val="-85352368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -2548,7 +2548,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627545904"/>
+        <c:crossAx val="-85352912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2840,88 +2840,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>13381.884159468407</c:v>
+                  <c:v>0.63888277948860384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13797.191627218766</c:v>
+                  <c:v>0.6992299715988195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14128.649634452517</c:v>
+                  <c:v>0.74965579192971099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14511.019560935903</c:v>
+                  <c:v>0.81185196528479286</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14925.882475218497</c:v>
+                  <c:v>0.90528789922853969</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15563.882921480617</c:v>
+                  <c:v>1.0594311355048751</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15799.596068168668</c:v>
+                  <c:v>1.423788417945723</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16357.739666156878</c:v>
+                  <c:v>1.7994765721321591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16935.121568843122</c:v>
+                  <c:v>2.255640902039568</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17736.914638193048</c:v>
+                  <c:v>2.9718345488807878</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18464.078545158507</c:v>
+                  <c:v>4.1876869395573308</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19166.692215718551</c:v>
+                  <c:v>5.7628250982908593</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20058.735773087752</c:v>
+                  <c:v>7.8187626848272016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20435.969784417954</c:v>
+                  <c:v>12.698194298744079</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20278.499739432627</c:v>
+                  <c:v>21.073503873656769</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21589.613748314347</c:v>
+                  <c:v>33.912263179829672</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22277.930768954324</c:v>
+                  <c:v>65.648612993412343</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22832.897362521064</c:v>
+                  <c:v>101.52151966290219</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23467.918512807806</c:v>
+                  <c:v>138.59293640973411</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24074.119579745573</c:v>
+                  <c:v>197.26150234678809</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24308.615009446032</c:v>
+                  <c:v>255.9794773336148</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24951.573195105961</c:v>
+                  <c:v>328.41494798557272</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25699.435183038651</c:v>
+                  <c:v>445.47996089304161</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26745.772154130489</c:v>
+                  <c:v>575.760244320575</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27099.499905623976</c:v>
+                  <c:v>705.2251576877859</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26986.49569151612</c:v>
+                  <c:v>854.37473965683262</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28520.172901436086</c:v>
+                  <c:v>1059.2936809324981</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29165.129834866351</c:v>
+                  <c:v>1322.6156827866339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,11 +3150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627543728"/>
-        <c:axId val="1627525232"/>
+        <c:axId val="-85361616"/>
+        <c:axId val="-85361072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627543728"/>
+        <c:axId val="-85361616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +3197,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627525232"/>
+        <c:crossAx val="-85361072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3205,7 +3205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627525232"/>
+        <c:axId val="-85361072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,7 +3256,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627543728"/>
+        <c:crossAx val="-85361616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4829,11 +4829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627532848"/>
-        <c:axId val="1627540464"/>
+        <c:axId val="-85347472"/>
+        <c:axId val="-85359984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627532848"/>
+        <c:axId val="-85347472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4932,7 +4932,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627540464"/>
+        <c:crossAx val="-85359984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4940,7 +4940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627540464"/>
+        <c:axId val="-85359984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5051,7 +5051,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627532848"/>
+        <c:crossAx val="-85347472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6641,11 +6641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627527408"/>
-        <c:axId val="1627547536"/>
+        <c:axId val="-85342576"/>
+        <c:axId val="-85358896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627527408"/>
+        <c:axId val="-85342576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6744,7 +6744,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627547536"/>
+        <c:crossAx val="-85358896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6752,7 +6752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627547536"/>
+        <c:axId val="-85358896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6926,7 +6926,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627527408"/>
+        <c:crossAx val="-85342576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8516,11 +8516,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627531760"/>
-        <c:axId val="1627535024"/>
+        <c:axId val="-85346384"/>
+        <c:axId val="-85357808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627531760"/>
+        <c:axId val="-85346384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8618,7 +8618,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627535024"/>
+        <c:crossAx val="-85357808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8626,7 +8626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627535024"/>
+        <c:axId val="-85357808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8737,7 +8737,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627531760"/>
+        <c:crossAx val="-85346384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12746,7 +12746,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12782,7 +12782,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE5A84D3-3B95-4751-AB61-8FC988A677C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE5A84D3-3B95-4751-AB61-8FC988A677C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12818,7 +12818,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C617624-FE52-4DCD-8C39-3F11320729FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C617624-FE52-4DCD-8C39-3F11320729FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12859,7 +12859,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12900,7 +12900,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3246A0-531D-47E5-A738-3FB2657C8530}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F3246A0-531D-47E5-A738-3FB2657C8530}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12938,7 +12938,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79BBC34B-96F8-43DD-BFB1-E9EC6B3D4A8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79BBC34B-96F8-43DD-BFB1-E9EC6B3D4A8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12976,7 +12976,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57401206-F1A1-4A59-AFBD-49D30E7ACBD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57401206-F1A1-4A59-AFBD-49D30E7ACBD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13268,7 +13268,7 @@
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:AF3"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4:AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13475,88 +13475,88 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>13381.884159468407</v>
+        <v>0.63888277948860384</v>
       </c>
       <c r="F4" s="1">
-        <v>13797.191627218766</v>
+        <v>0.6992299715988195</v>
       </c>
       <c r="G4" s="1">
-        <v>14128.649634452517</v>
+        <v>0.74965579192971099</v>
       </c>
       <c r="H4" s="1">
-        <v>14511.019560935903</v>
+        <v>0.81185196528479286</v>
       </c>
       <c r="I4" s="1">
-        <v>14925.882475218497</v>
+        <v>0.90528789922853969</v>
       </c>
       <c r="J4" s="1">
-        <v>15563.882921480617</v>
+        <v>1.0594311355048751</v>
       </c>
       <c r="K4" s="1">
-        <v>15799.596068168668</v>
+        <v>1.423788417945723</v>
       </c>
       <c r="L4" s="1">
-        <v>16357.739666156878</v>
+        <v>1.7994765721321591</v>
       </c>
       <c r="M4" s="1">
-        <v>16935.121568843122</v>
+        <v>2.255640902039568</v>
       </c>
       <c r="N4" s="1">
-        <v>17736.914638193048</v>
+        <v>2.9718345488807878</v>
       </c>
       <c r="O4" s="1">
-        <v>18464.078545158507</v>
+        <v>4.1876869395573308</v>
       </c>
       <c r="P4" s="1">
-        <v>19166.692215718551</v>
+        <v>5.7628250982908593</v>
       </c>
       <c r="Q4" s="1">
-        <v>20058.735773087752</v>
+        <v>7.8187626848272016</v>
       </c>
       <c r="R4" s="1">
-        <v>20435.969784417954</v>
+        <v>12.698194298744079</v>
       </c>
       <c r="S4" s="1">
-        <v>20278.499739432627</v>
+        <v>21.073503873656769</v>
       </c>
       <c r="T4" s="1">
-        <v>21589.613748314347</v>
+        <v>33.912263179829672</v>
       </c>
       <c r="U4" s="1">
-        <v>22277.930768954324</v>
+        <v>65.648612993412343</v>
       </c>
       <c r="V4" s="1">
-        <v>22832.897362521064</v>
+        <v>101.52151966290219</v>
       </c>
       <c r="W4" s="1">
-        <v>23467.918512807806</v>
+        <v>138.59293640973411</v>
       </c>
       <c r="X4" s="1">
-        <v>24074.119579745573</v>
+        <v>197.26150234678809</v>
       </c>
       <c r="Y4" s="1">
-        <v>24308.615009446032</v>
+        <v>255.9794773336148</v>
       </c>
       <c r="Z4" s="1">
-        <v>24951.573195105961</v>
+        <v>328.41494798557272</v>
       </c>
       <c r="AA4" s="1">
-        <v>25699.435183038651</v>
+        <v>445.47996089304161</v>
       </c>
       <c r="AB4" s="38">
-        <v>26745.772154130489</v>
+        <v>575.760244320575</v>
       </c>
       <c r="AC4" s="1">
-        <v>27099.499905623976</v>
+        <v>705.2251576877859</v>
       </c>
       <c r="AD4" s="1">
-        <v>26986.49569151612</v>
+        <v>854.37473965683262</v>
       </c>
       <c r="AE4" s="1">
-        <v>28520.172901436086</v>
+        <v>1059.2936809324981</v>
       </c>
       <c r="AF4" s="39">
-        <v>29165.129834866351</v>
+        <v>1322.6156827866339</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -14419,111 +14419,111 @@
       </c>
       <c r="F16">
         <f>$A16*($C16*E$4)+($B16-$A16)*(E$3)-($B16/($C16*E$4))*(E3^2)</f>
-        <v>0.54497017277840398</v>
+        <v>2.6018164151921823E-5</v>
       </c>
       <c r="G16">
         <f>$A16*($C16*F$4)+($B16-$A16)*(F$17)-($B16/($C16*F$4))*(F17^2)</f>
-        <v>0.71417317499817679</v>
+        <v>3.5746664307773388E-5</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:AF16" si="6">$A16*($C16*G$4)+($B16-$A16)*(G$17)-($B16/($C16*G$4))*(G17^2)</f>
-        <v>0.92701753715219148</v>
+        <v>4.7779654102337091E-5</v>
       </c>
       <c r="I16">
         <f t="shared" si="6"/>
-        <v>1.200984838402239</v>
+        <v>6.3636039482468522E-5</v>
       </c>
       <c r="J16">
         <f t="shared" si="6"/>
-        <v>1.5520665702516099</v>
+        <v>8.51664746009614E-5</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>2.0090878353812878</v>
+        <v>1.1514700239265671E-4</v>
       </c>
       <c r="L16">
         <f t="shared" si="6"/>
-        <v>2.5749993209547708</v>
+        <v>1.620520727523674E-4</v>
       </c>
       <c r="M16">
         <f t="shared" si="6"/>
-        <v>3.3086292442275274</v>
+        <v>2.2243671404807651E-4</v>
       </c>
       <c r="N16">
         <f t="shared" si="6"/>
-        <v>4.242017228156719</v>
+        <v>3.0285837498605873E-4</v>
       </c>
       <c r="O16">
         <f t="shared" si="6"/>
-        <v>5.4363004731486795</v>
+        <v>4.1625056812603125E-4</v>
       </c>
       <c r="P16">
         <f t="shared" si="6"/>
-        <v>6.9458482717938379</v>
+        <v>5.8162771223035773E-4</v>
       </c>
       <c r="Q16">
         <f t="shared" si="6"/>
-        <v>8.8516715403344914</v>
+        <v>8.0761219344791121E-4</v>
       </c>
       <c r="R16">
         <f t="shared" si="6"/>
-        <v>11.261486522517441</v>
+        <v>1.115993356544439E-3</v>
       </c>
       <c r="S16">
         <f t="shared" si="6"/>
-        <v>14.254379611813876</v>
+        <v>1.6260059252039927E-3</v>
       </c>
       <c r="T16">
         <f t="shared" si="6"/>
-        <v>17.940305538705879</v>
+        <v>2.420815121021803E-3</v>
       </c>
       <c r="U16">
         <f t="shared" si="6"/>
-        <v>22.614332848635055</v>
+        <v>3.6190175574827279E-3</v>
       </c>
       <c r="V16">
         <f t="shared" si="6"/>
-        <v>28.313234717190603</v>
+        <v>5.9227013444633457E-3</v>
       </c>
       <c r="W16">
         <f t="shared" si="6"/>
-        <v>35.226865261838562</v>
+        <v>9.035992250181181E-3</v>
       </c>
       <c r="X16">
         <f t="shared" si="6"/>
-        <v>43.53789038418239</v>
+        <v>1.3064565778471888E-2</v>
       </c>
       <c r="Y16">
         <f t="shared" si="6"/>
-        <v>53.352078295937623</v>
+        <v>1.9096099478854954E-2</v>
       </c>
       <c r="Z16">
         <f t="shared" si="6"/>
-        <v>64.544957065880453</v>
+        <v>2.6806395596080734E-2</v>
       </c>
       <c r="AA16">
         <f t="shared" si="6"/>
-        <v>77.302172031210986</v>
+        <v>3.7219084470416608E-2</v>
       </c>
       <c r="AB16" s="43">
         <f t="shared" si="6"/>
-        <v>91.360343450644024</v>
+        <v>5.2350599576982092E-2</v>
       </c>
       <c r="AC16" s="44">
         <f t="shared" si="6"/>
-        <v>106.63158420928373</v>
+        <v>7.2222274124719626E-2</v>
       </c>
       <c r="AD16" s="44">
         <f t="shared" si="6"/>
-        <v>121.13238181224516</v>
+        <v>9.7565575127879209E-2</v>
       </c>
       <c r="AE16" s="44">
         <f t="shared" si="6"/>
-        <v>133.08913731152438</v>
+        <v>0.13072719879908803</v>
       </c>
       <c r="AF16" s="45">
         <f t="shared" si="6"/>
-        <v>147.30469001412905</v>
+        <v>0.17535228794711408</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -14539,111 +14539,111 @@
       </c>
       <c r="F17" s="6">
         <f>E$3+F16</f>
-        <v>0.54497017277840398</v>
+        <v>2.6018164151921823E-5</v>
       </c>
       <c r="G17" s="6">
         <f>F17+G16</f>
-        <v>1.2591433477765808</v>
+        <v>6.1764828459695214E-5</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ref="H17" si="7">G17+H16</f>
-        <v>2.1861608849287721</v>
+        <v>1.0954448256203231E-4</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ref="I17" si="8">H17+I16</f>
-        <v>3.3871457233310114</v>
+        <v>1.7318052204450083E-4</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" ref="J17" si="9">I17+J16</f>
-        <v>4.9392122935826208</v>
+        <v>2.5834699664546224E-4</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ref="K17" si="10">J17+K16</f>
-        <v>6.9483001289639086</v>
+        <v>3.7349399903811897E-4</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" ref="L17" si="11">K17+L16</f>
-        <v>9.5232994499186798</v>
+        <v>5.3554607179048634E-4</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" ref="M17" si="12">L17+M16</f>
-        <v>12.831928694146207</v>
+        <v>7.5798278583856288E-4</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" ref="N17" si="13">M17+N16</f>
-        <v>17.073945922302926</v>
+        <v>1.0608411608246217E-3</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" ref="O17" si="14">N17+O16</f>
-        <v>22.510246395451606</v>
+        <v>1.4770917289506529E-3</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" ref="P17" si="15">O17+P16</f>
-        <v>29.456094667245445</v>
+        <v>2.0587194411810106E-3</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" ref="Q17" si="16">P17+Q16</f>
-        <v>38.307766207579938</v>
+        <v>2.8663316346289221E-3</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" ref="R17" si="17">Q17+R16</f>
-        <v>49.569252730097375</v>
+        <v>3.982324991173361E-3</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" ref="S17" si="18">R17+S16</f>
-        <v>63.823632341911249</v>
+        <v>5.6083309163773541E-3</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" ref="T17" si="19">S17+T16</f>
-        <v>81.763937880617135</v>
+        <v>8.0291460373991576E-3</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" ref="U17" si="20">T17+U16</f>
-        <v>104.37827072925219</v>
+        <v>1.1648163594881886E-2</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" ref="V17" si="21">U17+V16</f>
-        <v>132.69150544644279</v>
+        <v>1.7570864939345232E-2</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" ref="W17" si="22">V17+W16</f>
-        <v>167.91837070828134</v>
+        <v>2.6606857189526413E-2</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" ref="X17" si="23">W17+X16</f>
-        <v>211.45626109246373</v>
+        <v>3.9671422967998304E-2</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" ref="Y17" si="24">X17+Y16</f>
-        <v>264.80833938840135</v>
+        <v>5.8767522446853258E-2</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" ref="Z17" si="25">Y17+Z16</f>
-        <v>329.3532964542818</v>
+        <v>8.5573918042933989E-2</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" ref="AA17" si="26">Z17+AA16</f>
-        <v>406.6554684854928</v>
+        <v>0.1227930025133506</v>
       </c>
       <c r="AB17" s="49">
         <f t="shared" ref="AB17" si="27">AA17+AB16</f>
-        <v>498.01581193613686</v>
+        <v>0.1751436020903327</v>
       </c>
       <c r="AC17" s="50">
         <f t="shared" ref="AC17" si="28">AB17+AC16</f>
-        <v>604.64739614542054</v>
+        <v>0.24736587621505232</v>
       </c>
       <c r="AD17" s="50">
         <f t="shared" ref="AD17" si="29">AC17+AD16</f>
-        <v>725.77977795766571</v>
+        <v>0.34493145134293152</v>
       </c>
       <c r="AE17" s="50">
         <f t="shared" ref="AE17" si="30">AD17+AE16</f>
-        <v>858.8689152691901</v>
+        <v>0.47565865014201958</v>
       </c>
       <c r="AF17" s="51">
         <f t="shared" ref="AF17" si="31">AE17+AF16</f>
-        <v>1006.1736052833191</v>
+        <v>0.65101093808913368</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -14652,126 +14652,126 @@
       </c>
       <c r="B18" s="17">
         <f>AF17-$AF$3</f>
-        <v>951.39370451991454</v>
+        <v>-54.128889825315497</v>
       </c>
       <c r="C18" s="18">
         <f>((AF17-AA17)-($AF$3-$AA$3))</f>
-        <v>552.35013020675603</v>
+        <v>-46.639788655494549</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="5">
         <f>SUM(F18:AA18)</f>
-        <v>450474.40558861243</v>
+        <v>88.271022853221581</v>
       </c>
       <c r="F18">
         <f>(F3-F17)^2</f>
-        <v>0.29699248921812349</v>
+        <v>6.7694486583634981E-10</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18:AF18" si="32">(G3-G17)^2</f>
-        <v>1.5854419702500153</v>
+        <v>3.8148940346555762E-9</v>
       </c>
       <c r="H18">
         <f t="shared" si="32"/>
-        <v>4.779225085611464</v>
+        <v>8.5644812526743032E-9</v>
       </c>
       <c r="I18">
         <f>(I3-I17)^2</f>
-        <v>11.471895763770213</v>
+        <v>2.1317077784937507E-9</v>
       </c>
       <c r="J18">
         <f t="shared" si="32"/>
-        <v>24.370716031206499</v>
+        <v>5.2139406864938852E-6</v>
       </c>
       <c r="K18">
         <f t="shared" si="32"/>
-        <v>48.22204752654536</v>
+        <v>1.3816050350377653E-5</v>
       </c>
       <c r="L18">
         <f t="shared" si="32"/>
-        <v>90.570937576194794</v>
+        <v>3.4661981877947084E-5</v>
       </c>
       <c r="M18">
         <f t="shared" si="32"/>
-        <v>164.43425904932911</v>
+        <v>6.3656113924508148E-5</v>
       </c>
       <c r="N18">
         <f t="shared" si="32"/>
-        <v>291.14138710151389</v>
+        <v>1.0038729072833476E-4</v>
       </c>
       <c r="O18">
         <f t="shared" si="32"/>
-        <v>505.88737965663597</v>
+        <v>2.8321447002166054E-4</v>
       </c>
       <c r="P18">
         <f t="shared" si="32"/>
-        <v>867.15474614096445</v>
+        <v>4.2831908738129922E-5</v>
       </c>
       <c r="Q18">
         <f t="shared" si="32"/>
-        <v>1466.6247523601885</v>
+        <v>6.9936347206490097E-5</v>
       </c>
       <c r="R18">
         <f t="shared" si="32"/>
-        <v>2455.5981414727967</v>
+        <v>1.2719824836446381E-4</v>
       </c>
       <c r="S18">
         <f t="shared" si="32"/>
-        <v>4070.2834428678343</v>
+        <v>3.7059944417949369E-4</v>
       </c>
       <c r="T18">
         <f t="shared" si="32"/>
-        <v>6675.0800740461154</v>
+        <v>2.9970696612483037E-3</v>
       </c>
       <c r="U18">
         <f t="shared" si="32"/>
-        <v>10867.148186194319</v>
+        <v>1.4642901213719913E-2</v>
       </c>
       <c r="V18">
         <f t="shared" si="32"/>
-        <v>17517.361248417368</v>
+        <v>0.10289079075763635</v>
       </c>
       <c r="W18">
         <f t="shared" si="32"/>
-        <v>28018.150923621055</v>
+        <v>0.25556166583038953</v>
       </c>
       <c r="X18">
         <f t="shared" si="32"/>
-        <v>44246.14857875555</v>
+        <v>1.1425572234862311</v>
       </c>
       <c r="Y18">
         <f t="shared" si="32"/>
-        <v>68620.655620272926</v>
+        <v>7.8071400884959434</v>
       </c>
       <c r="Z18">
         <f t="shared" si="32"/>
-        <v>105291.66539159177</v>
+        <v>22.857485250978748</v>
       </c>
       <c r="AA18">
         <f t="shared" si="32"/>
-        <v>159235.77420062126</v>
+        <v>56.086636331813551</v>
       </c>
       <c r="AB18" s="43">
         <f t="shared" si="32"/>
-        <v>235466.94571800288</v>
+        <v>158.54093301066112</v>
       </c>
       <c r="AC18" s="44">
         <f t="shared" si="32"/>
-        <v>343181.21703765116</v>
+        <v>345.33981372188134</v>
       </c>
       <c r="AD18" s="44">
         <f t="shared" si="32"/>
-        <v>490362.81316225237</v>
+        <v>633.81799537986115</v>
       </c>
       <c r="AE18" s="44">
         <f t="shared" si="32"/>
-        <v>676166.7221102597</v>
+        <v>1303.1870734056247</v>
       </c>
       <c r="AF18" s="45">
         <f t="shared" si="32"/>
-        <v>905149.98100012646</v>
+        <v>2929.9367137211434</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14780,126 +14780,126 @@
       </c>
       <c r="B19" s="20">
         <f>(B18/$AF$3)*100</f>
-        <v>1736.7568967110781</v>
+        <v>-98.811587956500929</v>
       </c>
       <c r="C19" s="21">
         <f>((C18)/($AF$3-$AA$3))*100</f>
-        <v>1171.0270798497661</v>
+        <v>-98.880135130247837</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="5">
         <f>SUM(F19:AA19)</f>
-        <v>1943.7694815307277</v>
+        <v>17.227510194856389</v>
       </c>
       <c r="F19">
         <f>SQRT(F18)</f>
-        <v>0.54497017277840398</v>
+        <v>2.6018164151921823E-5</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19" si="33">SQRT(G18)</f>
-        <v>1.2591433477765808</v>
+        <v>6.1764828459695214E-5</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19" si="34">SQRT(H18)</f>
-        <v>2.186143884928772</v>
+        <v>9.2544482562032312E-5</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19" si="35">SQRT(I18)</f>
-        <v>3.3870187132300011</v>
+        <v>4.6170421034399836E-5</v>
       </c>
       <c r="J19">
         <f t="shared" ref="J19" si="36">SQRT(J18)</f>
-        <v>4.9366705410839904</v>
+        <v>2.2834055019846748E-3</v>
       </c>
       <c r="K19">
         <f t="shared" ref="K19" si="37">SQRT(K18)</f>
-        <v>6.9442096401639084</v>
+        <v>3.716994800961881E-3</v>
       </c>
       <c r="L19">
         <f t="shared" ref="L19" si="38">SQRT(L18)</f>
-        <v>9.5168764611186791</v>
+        <v>5.8874427282095141E-3</v>
       </c>
       <c r="M19">
         <f t="shared" ref="M19" si="39">SQRT(M18)</f>
-        <v>12.823192233189406</v>
+        <v>7.9784781709614366E-3</v>
       </c>
       <c r="N19">
         <f t="shared" ref="N19" si="40">SQRT(N18)</f>
-        <v>17.062865735318727</v>
+        <v>1.001934582337264E-2</v>
       </c>
       <c r="O19">
         <f t="shared" ref="O19" si="41">SQRT(O18)</f>
-        <v>22.491940326628914</v>
+        <v>1.6828977093741038E-2</v>
       </c>
       <c r="P19">
         <f t="shared" ref="P19" si="42">SQRT(P18)</f>
-        <v>29.447491338668637</v>
+        <v>6.5446091356268117E-3</v>
       </c>
       <c r="Q19">
         <f t="shared" ref="Q19" si="43">SQRT(Q18)</f>
-        <v>38.296537080527116</v>
+        <v>8.3627954181894285E-3</v>
       </c>
       <c r="R19">
         <f t="shared" ref="R19" si="44">SQRT(R18)</f>
-        <v>49.553992185017712</v>
+        <v>1.1278220088491969E-2</v>
       </c>
       <c r="S19">
         <f t="shared" ref="S19" si="45">SQRT(S18)</f>
-        <v>63.798773051429713</v>
+        <v>1.9250959565161777E-2</v>
       </c>
       <c r="T19">
         <f t="shared" ref="T19" si="46">SQRT(T18)</f>
-        <v>81.701163235575265</v>
+        <v>5.4745499004468887E-2</v>
       </c>
       <c r="U19">
         <f t="shared" ref="U19" si="47">SQRT(U18)</f>
-        <v>104.2456147096573</v>
+        <v>0.12100785600001313</v>
       </c>
       <c r="V19">
         <f t="shared" ref="V19" si="48">SQRT(V18)</f>
-        <v>132.35316863761656</v>
+        <v>0.32076594388687268</v>
       </c>
       <c r="W19">
         <f t="shared" ref="W19" si="49">SQRT(W18)</f>
-        <v>167.38623277803063</v>
+        <v>0.50553107306118139</v>
       </c>
       <c r="X19">
         <f t="shared" ref="X19" si="50">SQRT(X18)</f>
-        <v>210.34768498549147</v>
+        <v>1.0689046840042526</v>
       </c>
       <c r="Y19">
         <f t="shared" ref="Y19" si="51">SQRT(Y18)</f>
-        <v>261.9554458687067</v>
+        <v>2.7941259972477877</v>
       </c>
       <c r="Z19">
         <f t="shared" ref="Z19" si="52">SQRT(Z18)</f>
-        <v>324.48677229063094</v>
+        <v>4.7809502456079533</v>
       </c>
       <c r="AA19">
         <f t="shared" ref="AA19" si="53">SQRT(AA18)</f>
-        <v>399.0435743131585</v>
+        <v>7.4891011698209518</v>
       </c>
       <c r="AB19" s="43">
         <f t="shared" ref="AB19" si="54">SQRT(AB18)</f>
-        <v>485.2493644694477</v>
+        <v>12.591303864598817</v>
       </c>
       <c r="AC19" s="44">
         <f t="shared" ref="AC19" si="55">SQRT(AC18)</f>
-        <v>585.81670942168523</v>
+        <v>18.583320847520266</v>
       </c>
       <c r="AD19" s="44">
         <f t="shared" ref="AD19" si="56">SQRT(AD18)</f>
-        <v>700.25910430515103</v>
+        <v>25.175742201171769</v>
       </c>
       <c r="AE19" s="44">
         <f t="shared" ref="AE19" si="57">SQRT(AE18)</f>
-        <v>822.29357416330311</v>
+        <v>36.099682455745018</v>
       </c>
       <c r="AF19" s="45">
         <f t="shared" ref="AF19" si="58">SQRT(AF18)</f>
-        <v>951.39370451991454</v>
+        <v>54.128889825315497</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15044,111 +15044,111 @@
       </c>
       <c r="F24">
         <f>$A24*($C24/($C24+E5))*E$4+($B24-$A24)*(E$3)-($B24/(($C24/($C24+E5))*E$4)*(E$3^2))</f>
-        <v>3.7692997225706431</v>
+        <v>1.7995527795520975E-4</v>
       </c>
       <c r="G24">
         <f>$A24*($C24/($C24+F5))*F$4+($B24-$A24)*(F$25)-($B24/(($C24/($C24+F5))*F$4)*(F$25^2))</f>
-        <v>4.8923453091900058</v>
+        <v>2.4559867052227689E-4</v>
       </c>
       <c r="H24">
         <f t="shared" ref="H24:AF24" si="60">$A24*($C24/($C24+G5))*G$4+($B24-$A24)*(G$25)-($B24/(($C24/($C24+G5))*G$4)*(G$25^2))</f>
-        <v>5.4456401884186771</v>
+        <v>2.8599028980423033E-4</v>
       </c>
       <c r="I24">
         <f t="shared" si="60"/>
-        <v>5.9134326828183914</v>
+        <v>3.2690009848357435E-4</v>
       </c>
       <c r="J24">
         <f t="shared" si="60"/>
-        <v>6.3947033185718842</v>
+        <v>3.8473909272849198E-4</v>
       </c>
       <c r="K24">
         <f t="shared" si="60"/>
-        <v>6.9814966026325029</v>
+        <v>4.9133318920488629E-4</v>
       </c>
       <c r="L24">
         <f t="shared" si="60"/>
-        <v>7.4685775532357193</v>
+        <v>1.1661887640163333E-3</v>
       </c>
       <c r="M24">
         <f t="shared" si="60"/>
-        <v>8.0790744409055257</v>
+        <v>1.7889070581302755E-3</v>
       </c>
       <c r="N24">
         <f t="shared" si="60"/>
-        <v>8.7522319715551635</v>
+        <v>2.6013268887847382E-3</v>
       </c>
       <c r="O24">
         <f t="shared" si="60"/>
-        <v>9.5659080249829422</v>
+        <v>3.5885692126288176E-3</v>
       </c>
       <c r="P24">
         <f t="shared" si="60"/>
-        <v>10.414063714912315</v>
+        <v>4.8929911724169828E-3</v>
       </c>
       <c r="Q24">
         <f t="shared" si="60"/>
-        <v>11.295213321742315</v>
+        <v>7.4395355680670202E-3</v>
       </c>
       <c r="R24">
         <f t="shared" si="60"/>
-        <v>12.309142024088024</v>
+        <v>7.2075035469672186E-3</v>
       </c>
       <c r="S24">
         <f t="shared" si="60"/>
-        <v>13.131905751646237</v>
+        <v>1.0409825610435953E-2</v>
       </c>
       <c r="T24">
         <f t="shared" si="60"/>
-        <v>13.649988466140144</v>
+        <v>1.6698973540899689E-2</v>
       </c>
       <c r="U24">
         <f t="shared" si="60"/>
-        <v>14.923104362031275</v>
+        <v>2.7647866449964097E-2</v>
       </c>
       <c r="V24">
         <f t="shared" si="60"/>
-        <v>16.06182994562732</v>
+        <v>5.70125043934352E-2</v>
       </c>
       <c r="W24">
         <f t="shared" si="60"/>
-        <v>17.132913716377079</v>
+        <v>0.10068966489538965</v>
       </c>
       <c r="X24">
         <f t="shared" si="60"/>
-        <v>18.295833829088657</v>
+        <v>0.17716313405460779</v>
       </c>
       <c r="Y24">
         <f t="shared" si="60"/>
-        <v>19.487324337824418</v>
+        <v>0.27353900360141248</v>
       </c>
       <c r="Z24">
         <f t="shared" si="60"/>
-        <v>20.545663827020547</v>
+        <v>0.45158054014908</v>
       </c>
       <c r="AA24">
         <f t="shared" si="60"/>
-        <v>22.11363689390619</v>
+        <v>0.87084584945968668</v>
       </c>
       <c r="AB24" s="43">
         <f t="shared" si="60"/>
-        <v>23.947016670100194</v>
+        <v>1.410442972542536</v>
       </c>
       <c r="AC24" s="44">
         <f t="shared" si="60"/>
-        <v>26.238729959292908</v>
+        <v>2.1046239476676862</v>
       </c>
       <c r="AD24" s="44">
         <f t="shared" si="60"/>
-        <v>28.648163376911238</v>
+        <v>3.1820817030092345</v>
       </c>
       <c r="AE24" s="44">
         <f t="shared" si="60"/>
-        <v>30.914193790059748</v>
+        <v>4.4392027071364426</v>
       </c>
       <c r="AF24" s="45">
         <f t="shared" si="60"/>
-        <v>34.584287609846839</v>
+        <v>5.8980187867427354</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -15164,111 +15164,111 @@
       </c>
       <c r="F25" s="6">
         <f>E$3+F24</f>
-        <v>3.7692997225706431</v>
+        <v>1.7995527795520975E-4</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" ref="G25:AF25" si="61">F$3+G24</f>
-        <v>4.8923453091900058</v>
+        <v>2.4559867052227689E-4</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="61"/>
-        <v>5.4456401884186771</v>
+        <v>2.8599028980423033E-4</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="61"/>
-        <v>5.9134496828183911</v>
+        <v>3.4390009848357433E-4</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="61"/>
-        <v>6.394830328672894</v>
+        <v>5.1174919373859302E-4</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="61"/>
-        <v>6.9840383551311334</v>
+        <v>3.0330856878350233E-3</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="61"/>
-        <v>7.4726680420357194</v>
+        <v>5.2566775640163332E-3</v>
       </c>
       <c r="M25" s="6">
         <f t="shared" si="61"/>
-        <v>8.0854974297055264</v>
+        <v>8.2118958581302755E-3</v>
       </c>
       <c r="N25" s="6">
         <f t="shared" si="61"/>
-        <v>8.7609684325119641</v>
+        <v>1.1337787845584738E-2</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="61"/>
-        <v>9.576988211967139</v>
+        <v>1.4668756196826078E-2</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="61"/>
-        <v>10.432369783735007</v>
+        <v>2.3199059995108674E-2</v>
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="61"/>
-        <v>11.303816650319122</v>
+        <v>1.6042864144874842E-2</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" si="61"/>
-        <v>12.320371151140842</v>
+        <v>1.8436630599785571E-2</v>
       </c>
       <c r="S25" s="6">
         <f t="shared" si="61"/>
-        <v>13.147166296725901</v>
+        <v>2.5670370690101283E-2</v>
       </c>
       <c r="T25" s="6">
         <f t="shared" si="61"/>
-        <v>13.674847756621682</v>
+        <v>4.1558264022438819E-2</v>
       </c>
       <c r="U25" s="6">
         <f t="shared" si="61"/>
-        <v>14.985879007073143</v>
+        <v>9.0422511491832142E-2</v>
       </c>
       <c r="V25" s="6">
         <f t="shared" si="61"/>
-        <v>16.194485965222214</v>
+        <v>0.1896685239883302</v>
       </c>
       <c r="W25" s="6">
         <f t="shared" si="61"/>
-        <v>17.471250525203295</v>
+        <v>0.43902647372160758</v>
       </c>
       <c r="X25" s="6">
         <f t="shared" si="61"/>
-        <v>18.827971759339366</v>
+        <v>0.70930106430531559</v>
       </c>
       <c r="Y25" s="6">
         <f t="shared" si="61"/>
-        <v>20.595900444796669</v>
+        <v>1.3821151105736635</v>
       </c>
       <c r="Z25" s="6">
         <f t="shared" si="61"/>
-        <v>23.398557346715187</v>
+        <v>3.304474059843721</v>
       </c>
       <c r="AA25" s="6">
         <f t="shared" si="61"/>
-        <v>26.980161057557076</v>
+        <v>5.7373700131105743</v>
       </c>
       <c r="AB25" s="49">
         <f t="shared" si="61"/>
-        <v>31.558910842434496</v>
+        <v>9.0223371448768397</v>
       </c>
       <c r="AC25" s="50">
         <f t="shared" si="61"/>
-        <v>39.005177425982055</v>
+        <v>14.871071414356837</v>
       </c>
       <c r="AD25" s="50">
         <f t="shared" si="61"/>
-        <v>47.478850100646554</v>
+        <v>22.012768426744554</v>
       </c>
       <c r="AE25" s="50">
         <f t="shared" si="61"/>
-        <v>56.434867442574443</v>
+        <v>29.95987635965114</v>
       </c>
       <c r="AF25" s="51">
         <f t="shared" si="61"/>
-        <v>71.159628715733874</v>
+        <v>42.473359892629773</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
@@ -15277,126 +15277,126 @@
       </c>
       <c r="B26" s="17">
         <f>AF25-$AF$3</f>
-        <v>16.37972795232924</v>
+        <v>-12.30654087077486</v>
       </c>
       <c r="C26" s="18">
         <f>((AF25-AA25)-($AF$3-$AA$3))</f>
-        <v>-2.9885389328935332</v>
+        <v>-10.432016711551135</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="5">
         <f>SUM(F26:AA26)</f>
-        <v>3332.6569074124973</v>
+        <v>8.3097241808113473</v>
       </c>
       <c r="F26">
         <f>(F3-F25)^2</f>
-        <v>14.207620398571127</v>
+        <v>3.2383902063936796E-8</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26:AF26" si="62">(G3-G25)^2</f>
-        <v>23.935042624353454</v>
+        <v>6.0318706962309914E-8</v>
       </c>
       <c r="H26">
         <f t="shared" si="62"/>
-        <v>29.654811910243204</v>
+        <v>7.235577600896383E-8</v>
       </c>
       <c r="I26">
         <f t="shared" si="62"/>
-        <v>34.967385031673437</v>
+        <v>4.7041271004043273E-8</v>
       </c>
       <c r="J26">
         <f t="shared" si="62"/>
-        <v>40.861353241087997</v>
+        <v>4.1209134178705911E-6</v>
       </c>
       <c r="K26">
         <f t="shared" si="62"/>
-        <v>48.719672216700538</v>
+        <v>1.1181013416161782E-6</v>
       </c>
       <c r="L26">
         <f t="shared" si="62"/>
-        <v>55.744815194966854</v>
+        <v>1.3602818991817496E-6</v>
       </c>
       <c r="M26">
         <f t="shared" si="62"/>
-        <v>65.234067746302856</v>
+        <v>2.751685427423779E-7</v>
       </c>
       <c r="N26">
         <f t="shared" si="62"/>
-        <v>76.560544309224994</v>
+        <v>6.6358203787570228E-8</v>
       </c>
       <c r="O26">
         <f t="shared" si="62"/>
-        <v>91.368404313668506</v>
+        <v>1.3230043138281401E-5</v>
       </c>
       <c r="P26">
         <f t="shared" si="62"/>
-        <v>108.65490711168134</v>
+        <v>2.1303537563517459E-4</v>
       </c>
       <c r="Q26">
         <f t="shared" si="62"/>
-        <v>127.5225329706298</v>
+        <v>2.3172064791440484E-5</v>
       </c>
       <c r="R26">
         <f t="shared" si="62"/>
-        <v>151.41574702739928</v>
+        <v>1.0087519231117459E-5</v>
       </c>
       <c r="S26">
         <f t="shared" si="62"/>
-        <v>172.19494116612989</v>
+        <v>6.5785110472122469E-7</v>
       </c>
       <c r="T26">
         <f t="shared" si="62"/>
-        <v>185.28853439499417</v>
+        <v>4.5013482356159656E-4</v>
       </c>
       <c r="U26">
         <f t="shared" si="62"/>
-        <v>220.61823311575222</v>
+        <v>1.7836692066914767E-3</v>
       </c>
       <c r="V26">
         <f t="shared" si="62"/>
-        <v>251.41746606987743</v>
+        <v>2.2102258916639313E-2</v>
       </c>
       <c r="W26">
         <f t="shared" si="62"/>
-        <v>286.93353550448137</v>
+        <v>8.6697433369705146E-3</v>
       </c>
       <c r="X26">
         <f t="shared" si="62"/>
-        <v>313.97698228512661</v>
+        <v>0.15942055969668315</v>
       </c>
       <c r="Y26">
         <f t="shared" si="62"/>
-        <v>314.81429474421861</v>
+        <v>2.1631891287364335</v>
       </c>
       <c r="Z26">
         <f t="shared" si="62"/>
-        <v>343.43625389819636</v>
+        <v>2.4400005268039799</v>
       </c>
       <c r="AA26">
         <f t="shared" si="62"/>
-        <v>375.12976213721709</v>
+        <v>3.5138408235134264</v>
       </c>
       <c r="AB26" s="43">
         <f t="shared" si="62"/>
-        <v>353.15667972873013</v>
+        <v>14.018362101901488</v>
       </c>
       <c r="AC26" s="44">
         <f t="shared" si="62"/>
-        <v>407.01007509504001</v>
+        <v>15.678553398264446</v>
       </c>
       <c r="AD26" s="44">
         <f t="shared" si="62"/>
-        <v>482.16151292729251</v>
+        <v>12.305399072985491</v>
       </c>
       <c r="AE26" s="44">
         <f t="shared" si="62"/>
-        <v>394.40078631758053</v>
+        <v>43.764373808690031</v>
       </c>
       <c r="AF26" s="45">
         <f t="shared" si="62"/>
-        <v>268.29548779231584</v>
+        <v>151.45094820405205</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15405,126 +15405,126 @@
       </c>
       <c r="B27" s="20">
         <f>(B26/$AF$3)*100</f>
-        <v>29.9009814257853</v>
+        <v>-22.465431114829926</v>
       </c>
       <c r="C27" s="21">
         <f>((C26)/($AF$3-$AA$3))*100</f>
-        <v>-6.3359449526945069</v>
+        <v>-22.116721620213827</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="5">
         <f>SUM(F27:AA27)</f>
-        <v>249.01143583295166</v>
+        <v>5.6448386100220462</v>
       </c>
       <c r="F27">
         <f>SQRT(F26)</f>
-        <v>3.7692997225706431</v>
+        <v>1.7995527795520975E-4</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="63">SQRT(G26)</f>
-        <v>4.8923453091900058</v>
+        <v>2.4559867052227689E-4</v>
       </c>
       <c r="H27">
         <f t="shared" ref="H27" si="64">SQRT(H26)</f>
-        <v>5.4456231884186774</v>
+        <v>2.6899028980423035E-4</v>
       </c>
       <c r="I27">
         <f t="shared" ref="I27" si="65">SQRT(I26)</f>
-        <v>5.9133226727173813</v>
+        <v>2.1688999747347334E-4</v>
       </c>
       <c r="J27">
         <f t="shared" ref="J27" si="66">SQRT(J26)</f>
-        <v>6.3922885761742636</v>
+        <v>2.0300033048915441E-3</v>
       </c>
       <c r="K27">
         <f t="shared" ref="K27" si="67">SQRT(K26)</f>
-        <v>6.9799478663311332</v>
+        <v>1.0574031121649767E-3</v>
       </c>
       <c r="L27">
         <f t="shared" ref="L27" si="68">SQRT(L26)</f>
-        <v>7.4662450532357196</v>
+        <v>1.1663112359836672E-3</v>
       </c>
       <c r="M27">
         <f t="shared" ref="M27" si="69">SQRT(M26)</f>
-        <v>8.0767609687487258</v>
+        <v>5.2456509866972457E-4</v>
       </c>
       <c r="N27">
         <f t="shared" ref="N27" si="70">SQRT(N26)</f>
-        <v>8.7498882455277673</v>
+        <v>2.5760086138747716E-4</v>
       </c>
       <c r="O27">
         <f t="shared" ref="O27" si="71">SQRT(O26)</f>
-        <v>9.5586821431444466</v>
+        <v>3.637312625865613E-3</v>
       </c>
       <c r="P27">
         <f t="shared" ref="P27" si="72">SQRT(P26)</f>
-        <v>10.4237664551582</v>
+        <v>1.4595731418300851E-2</v>
       </c>
       <c r="Q27">
         <f t="shared" ref="Q27" si="73">SQRT(Q26)</f>
-        <v>11.292587523266304</v>
+        <v>4.8137370920564911E-3</v>
       </c>
       <c r="R27">
         <f t="shared" ref="R27" si="74">SQRT(R26)</f>
-        <v>12.305110606061177</v>
+        <v>3.1760855201202406E-3</v>
       </c>
       <c r="S27">
         <f t="shared" ref="S27" si="75">SQRT(S26)</f>
-        <v>13.122307006244363</v>
+        <v>8.110802085621524E-4</v>
       </c>
       <c r="T27">
         <f t="shared" ref="T27" si="76">SQRT(T26)</f>
-        <v>13.612073111579814</v>
+        <v>2.1216381019429222E-2</v>
       </c>
       <c r="U27">
         <f t="shared" ref="U27" si="77">SQRT(U26)</f>
-        <v>14.853222987478247</v>
+        <v>4.2233508103062867E-2</v>
       </c>
       <c r="V27">
         <f t="shared" ref="V27" si="78">SQRT(V26)</f>
-        <v>15.856149156395995</v>
+        <v>0.14866828483788772</v>
       </c>
       <c r="W27">
         <f t="shared" ref="W27" si="79">SQRT(W26)</f>
-        <v>16.939112594952586</v>
+        <v>9.3111456529100189E-2</v>
       </c>
       <c r="X27">
         <f t="shared" ref="X27" si="80">SQRT(X26)</f>
-        <v>17.719395652367115</v>
+        <v>0.39927504266693548</v>
       </c>
       <c r="Y27">
         <f t="shared" ref="Y27" si="81">SQRT(Y26)</f>
-        <v>17.74300692510203</v>
+        <v>1.4707784091209775</v>
       </c>
       <c r="Z27">
         <f t="shared" ref="Z27" si="82">SQRT(Z26)</f>
-        <v>18.5320331830643</v>
+        <v>1.5620501038071666</v>
       </c>
       <c r="AA27">
         <f t="shared" ref="AA27" si="83">SQRT(AA26)</f>
-        <v>19.368266885222774</v>
+        <v>1.8745241592237285</v>
       </c>
       <c r="AB27" s="43">
         <f t="shared" ref="AB27" si="84">SQRT(AB26)</f>
-        <v>18.792463375745346</v>
+        <v>3.7441103218123111</v>
       </c>
       <c r="AC27" s="44">
         <f t="shared" ref="AC27" si="85">SQRT(AC26)</f>
-        <v>20.174490702246736</v>
+        <v>3.9596153093784814</v>
       </c>
       <c r="AD27" s="44">
         <f t="shared" ref="AD27" si="86">SQRT(AD26)</f>
-        <v>21.958176448131855</v>
+        <v>3.5079052257701449</v>
       </c>
       <c r="AE27" s="44">
         <f t="shared" ref="AE27" si="87">SQRT(AE26)</f>
-        <v>19.859526336687402</v>
+        <v>6.6154647462359009</v>
       </c>
       <c r="AF27" s="45">
         <f t="shared" ref="AF27" si="88">SQRT(AF26)</f>
-        <v>16.37972795232924</v>
+        <v>12.30654087077486</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16242,107 +16242,107 @@
       </c>
       <c r="F43">
         <f>G44-F44</f>
-        <v>2.99385764723805</v>
+        <v>1.8099043100818608E-4</v>
       </c>
       <c r="G43">
         <f t="shared" ref="G43" si="93">H44-G44</f>
-        <v>3.7676554936283377</v>
+        <v>2.3075193447593225E-4</v>
       </c>
       <c r="H43">
         <f t="shared" ref="H43" si="94">I44-H44</f>
-        <v>4.909145505512523</v>
+        <v>3.2295874631632496E-4</v>
       </c>
       <c r="I43">
         <f t="shared" ref="I43" si="95">J44-I44</f>
-        <v>6.3622943501348637</v>
+        <v>4.8768056676532943E-4</v>
       </c>
       <c r="J43">
         <f t="shared" ref="J43" si="96">K44-J44</f>
-        <v>8.6838484908003899</v>
+        <v>7.9878453959266642E-4</v>
       </c>
       <c r="K43">
         <f t="shared" ref="K43" si="97">L44-K44</f>
-        <v>10.028920953460002</v>
+        <v>1.7124289923916734E-3</v>
       </c>
       <c r="L43">
         <f t="shared" ref="L43" si="98">M44-L44</f>
-        <v>13.830333564569173</v>
+        <v>2.4506140647875593E-3</v>
       </c>
       <c r="M43">
         <f t="shared" ref="M43" si="99">N44-M44</f>
-        <v>17.725915203819014</v>
+        <v>3.7646323615687424E-3</v>
       </c>
       <c r="N43">
         <f t="shared" ref="N43" si="100">O44-N44</f>
-        <v>23.776403704346237</v>
+        <v>6.6728226663601477E-3</v>
       </c>
       <c r="O43">
         <f t="shared" ref="O43" si="101">P44-O44</f>
-        <v>29.691494337905581</v>
+        <v>1.2780242714303353E-2</v>
       </c>
       <c r="P43">
         <f t="shared" ref="P43" si="102">Q44-P44</f>
-        <v>37.068249335360946</v>
+        <v>2.0876088773911203E-2</v>
       </c>
       <c r="Q43">
         <f t="shared" ref="Q43" si="103">R44-Q44</f>
-        <v>48.057477134983088</v>
+        <v>3.3776982169187592E-2</v>
       </c>
       <c r="R43">
         <f t="shared" ref="R43" si="104">S44-R44</f>
-        <v>52.564503511872999</v>
+        <v>8.2880406438914866E-2</v>
       </c>
       <c r="S43">
         <f t="shared" ref="S43" si="105">T44-S44</f>
-        <v>54.065480279324106</v>
+        <v>0.16876137929769444</v>
       </c>
       <c r="T43">
         <f t="shared" ref="T43" si="106">U44-T44</f>
-        <v>89.499372913202023</v>
+        <v>0.31253823902639394</v>
       </c>
       <c r="U43">
         <f t="shared" ref="U43" si="107">V44-U44</f>
-        <v>92.823070776107443</v>
+        <v>0.84181839011006154</v>
       </c>
       <c r="V43">
         <f t="shared" ref="V43" si="108">W44-V44</f>
-        <v>102.52345105404447</v>
+        <v>1.2143056331726909</v>
       </c>
       <c r="W43">
         <f t="shared" ref="W43" si="109">X44-W44</f>
-        <v>116.32355850490728</v>
+        <v>1.5747404568930095</v>
       </c>
       <c r="X43">
         <f t="shared" ref="X43" si="110">Y44-X44</f>
-        <v>125.62170967239751</v>
+        <v>2.6875662967603215</v>
       </c>
       <c r="Y43">
         <f t="shared" ref="Y43" si="111">Z44-Y44</f>
-        <v>118.45172064921951</v>
+        <v>3.2340078658219706</v>
       </c>
       <c r="Z43">
         <f t="shared" ref="Z43" si="112">AA44-Z44</f>
-        <v>137.92255291189099</v>
+        <v>4.3647572241229504</v>
       </c>
       <c r="AA43">
         <f t="shared" ref="AA43" si="113">AB44-AA44</f>
-        <v>144.95420981128404</v>
+        <v>7.1297899808359695</v>
       </c>
       <c r="AB43" s="43">
         <f t="shared" ref="AB43" si="114">AC44-AB44</f>
-        <v>160.47605690128307</v>
+        <v>8.7024902847033339</v>
       </c>
       <c r="AC43" s="44">
         <f t="shared" ref="AC43" si="115">AD44-AC44</f>
-        <v>120.58378761542099</v>
+        <v>9.487320091618237</v>
       </c>
       <c r="AD43" s="44">
         <f t="shared" ref="AD43" si="116">AE44-AD44</f>
-        <v>84.711555510339622</v>
+        <v>11.319724690511187</v>
       </c>
       <c r="AE43" s="44">
         <f t="shared" ref="AE43" si="117">AF44-AE44</f>
-        <v>176.60022994550741</v>
+        <v>15.426669560877727</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -16358,111 +16358,111 @@
       </c>
       <c r="F44" s="12">
         <f>$E$3+$C43*E4*(1/(1+EXP(-$A43*(F42-$B43))))</f>
-        <v>9.9647167305578606</v>
+        <v>4.7573912954035748E-4</v>
       </c>
       <c r="G44" s="12">
         <f>$E$3+$C43*F4*(1/(1+EXP(-$A43*(G42-$B43))))</f>
-        <v>12.958574377795911</v>
+        <v>6.5672956054854356E-4</v>
       </c>
       <c r="H44" s="12">
         <f t="shared" ref="H44:AF44" si="118">$E$3+$C43*G4*(1/(1+EXP(-$A43*(H42-$B43))))</f>
-        <v>16.726229871424248</v>
+        <v>8.8748149502447581E-4</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" si="118"/>
-        <v>21.635375376936771</v>
+        <v>1.2104402413408008E-3</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="118"/>
-        <v>27.997669727071635</v>
+        <v>1.6981208081061302E-3</v>
       </c>
       <c r="K44" s="12">
         <f>$E$3+$C43*J4*(1/(1+EXP(-$A43*(K42-$B43))))</f>
-        <v>36.681518217872025</v>
+        <v>2.4969053476987966E-3</v>
       </c>
       <c r="L44" s="12">
         <f t="shared" si="118"/>
-        <v>46.710439171332027</v>
+        <v>4.20933434009047E-3</v>
       </c>
       <c r="M44" s="12">
         <f t="shared" si="118"/>
-        <v>60.5407727359012</v>
+        <v>6.6599484048780293E-3</v>
       </c>
       <c r="N44" s="12">
         <f t="shared" si="118"/>
-        <v>78.266687939720214</v>
+        <v>1.0424580766446772E-2</v>
       </c>
       <c r="O44" s="12">
         <f t="shared" si="118"/>
-        <v>102.04309164406645</v>
+        <v>1.7097403432806919E-2</v>
       </c>
       <c r="P44" s="12">
         <f t="shared" si="118"/>
-        <v>131.73458598197203</v>
+        <v>2.9877646147110273E-2</v>
       </c>
       <c r="Q44" s="12">
         <f t="shared" si="118"/>
-        <v>168.80283531733298</v>
+        <v>5.0753734921021476E-2</v>
       </c>
       <c r="R44" s="12">
         <f t="shared" si="118"/>
-        <v>216.86031245231607</v>
+        <v>8.4530717090209068E-2</v>
       </c>
       <c r="S44" s="12">
         <f t="shared" si="118"/>
-        <v>269.42481596418907</v>
+        <v>0.16741112352912393</v>
       </c>
       <c r="T44" s="12">
         <f t="shared" si="118"/>
-        <v>323.49029624351317</v>
+        <v>0.33617250282681838</v>
       </c>
       <c r="U44" s="12">
         <f t="shared" si="118"/>
-        <v>412.98966915671519</v>
+        <v>0.64871074185321231</v>
       </c>
       <c r="V44" s="12">
         <f t="shared" si="118"/>
-        <v>505.81273993282264</v>
+        <v>1.4905291319632739</v>
       </c>
       <c r="W44" s="12">
         <f t="shared" si="118"/>
-        <v>608.33619098686711</v>
+        <v>2.7048347651359648</v>
       </c>
       <c r="X44" s="12">
         <f t="shared" si="118"/>
-        <v>724.65974949177439</v>
+        <v>4.2795752220289742</v>
       </c>
       <c r="Y44" s="12">
         <f t="shared" si="118"/>
-        <v>850.28145916417191</v>
+        <v>6.9671415187892958</v>
       </c>
       <c r="Z44" s="12">
         <f t="shared" si="118"/>
-        <v>968.73317981339142</v>
+        <v>10.201149384611266</v>
       </c>
       <c r="AA44" s="12">
         <f t="shared" si="118"/>
-        <v>1106.6557327252824</v>
+        <v>14.565906608734217</v>
       </c>
       <c r="AB44" s="52">
         <f t="shared" si="118"/>
-        <v>1251.6099425365665</v>
+        <v>21.695696589570186</v>
       </c>
       <c r="AC44" s="53">
         <f t="shared" si="118"/>
-        <v>1412.0859994378495</v>
+        <v>30.39818687427352</v>
       </c>
       <c r="AD44" s="53">
         <f t="shared" si="118"/>
-        <v>1532.6697870532705</v>
+        <v>39.885506965891757</v>
       </c>
       <c r="AE44" s="53">
         <f t="shared" si="118"/>
-        <v>1617.3813425636101</v>
+        <v>51.205231656402944</v>
       </c>
       <c r="AF44" s="54">
         <f t="shared" si="118"/>
-        <v>1793.9815725091175</v>
+        <v>66.631901217280671</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -16471,126 +16471,126 @@
       </c>
       <c r="B45" s="17">
         <f>AF44-$AF$3</f>
-        <v>1739.2016717457129</v>
+        <v>11.852000453876038</v>
       </c>
       <c r="C45" s="18">
         <f>((AF44-AA44)-($AF$3-$AA$3))</f>
-        <v>640.15783319276477</v>
+        <v>4.8979880174761234</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="5">
         <f>SUM(F45:AA45)</f>
-        <v>4469547.0523326509</v>
+        <v>110.21515586659481</v>
       </c>
       <c r="F45" s="3">
         <f>(F44-F$3)^2</f>
-        <v>99.295579520259736</v>
+        <v>2.2632771937581703E-7</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" ref="G45" si="119">(G44-G$3)^2</f>
-        <v>167.92464990486866</v>
+        <v>4.3129371569828313E-7</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" ref="H45" si="120">(H44-H$3)^2</f>
-        <v>279.76619702019821</v>
+        <v>7.5773803318004656E-7</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" ref="I45" si="121">(I44-I$3)^2</f>
-        <v>468.08397189466945</v>
+        <v>1.1738208689769998E-6</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" ref="J45" si="122">(J44-J$3)^2</f>
-        <v>783.72719031272004</v>
+        <v>7.1171442925639384E-7</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" ref="K45" si="123">(K44-K$3)^2</f>
-        <v>1345.2337048213012</v>
+        <v>2.5395082194482217E-6</v>
       </c>
       <c r="L45" s="3">
         <f t="shared" ref="L45" si="124">(L44-L$3)^2</f>
-        <v>2181.2651275782137</v>
+        <v>4.9002660678773543E-6</v>
       </c>
       <c r="M45" s="3">
         <f t="shared" ref="M45" si="125">(M44-M$3)^2</f>
-        <v>3664.1274155911851</v>
+        <v>4.3119043782894953E-6</v>
       </c>
       <c r="N45" s="3">
         <f t="shared" ref="N45" si="126">(N44-N$3)^2</f>
-        <v>6123.9401447500768</v>
+        <v>4.298195127531017E-7</v>
       </c>
       <c r="O45" s="3">
         <f t="shared" ref="O45" si="127">(O44-O$3)^2</f>
-        <v>10409.056871674466</v>
+        <v>1.4608720247053066E-6</v>
       </c>
       <c r="P45" s="3">
         <f t="shared" ref="P45" si="128">(P44-P$3)^2</f>
-        <v>17351.73450600258</v>
+        <v>4.525965880820796E-4</v>
       </c>
       <c r="Q45" s="3">
         <f t="shared" ref="Q45" si="129">(Q44-Q$3)^2</f>
-        <v>28490.606320294624</v>
+        <v>1.5621946271352242E-3</v>
       </c>
       <c r="R45" s="3">
         <f t="shared" ref="R45" si="130">(R44-R$3)^2</f>
-        <v>47021.776536652054</v>
+        <v>4.7983567303703173E-3</v>
       </c>
       <c r="S45" s="3">
         <f t="shared" ref="S45" si="131">(S44-S$3)^2</f>
-        <v>72576.336655795501</v>
+        <v>2.0321025105226494E-2</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" ref="T45" si="132">(T44-T$3)^2</f>
-        <v>104605.36172732961</v>
+        <v>7.474638864139993E-2</v>
       </c>
       <c r="U45" s="3">
         <f t="shared" ref="U45" si="133">(U44-U$3)^2</f>
-        <v>170450.91329650432</v>
+        <v>0.26631247636510896</v>
       </c>
       <c r="V45" s="3">
         <f t="shared" ref="V45" si="134">(V44-V$3)^2</f>
-        <v>255504.37221356042</v>
+        <v>1.3275471494959659</v>
       </c>
       <c r="W45" s="3">
         <f t="shared" ref="W45" si="135">(W44-W$3)^2</f>
-        <v>369425.76691205025</v>
+        <v>4.7206115363204146</v>
       </c>
       <c r="X45" s="3">
         <f t="shared" ref="X45" si="136">(X44-X$3)^2</f>
-        <v>523526.30050652404</v>
+        <v>10.055235387690523</v>
       </c>
       <c r="Y45" s="3">
         <f t="shared" ref="Y45" si="137">(Y44-Y$3)^2</f>
-        <v>718135.17387025617</v>
+        <v>16.927036598054372</v>
       </c>
       <c r="Z45" s="3">
         <f t="shared" ref="Z45" si="138">(Z44-Z$3)^2</f>
-        <v>929038.9298734155</v>
+        <v>28.45822624810657</v>
       </c>
       <c r="AA45" s="3">
         <f t="shared" ref="AA45" si="139">(AA44-AA$3)^2</f>
-        <v>1207897.3590611985</v>
+        <v>48.358288965604672</v>
       </c>
       <c r="AB45" s="46">
         <f t="shared" ref="AB45" si="140">(AB44-AB$3)^2</f>
-        <v>1534733.2052769489</v>
+        <v>79.731489898471736</v>
       </c>
       <c r="AC45" s="47">
         <f t="shared" ref="AC45" si="141">(AC44-AC$3)^2</f>
-        <v>1941160.3664061038</v>
+        <v>133.8070597327013</v>
       </c>
       <c r="AD45" s="47">
         <f t="shared" ref="AD45" si="142">(AD44-AD$3)^2</f>
-        <v>2271498.4500246844</v>
+        <v>206.34843612110731</v>
       </c>
       <c r="AE45" s="47">
         <f t="shared" ref="AE45" si="143">(AE44-AE$3)^2</f>
-        <v>2498947.6142447549</v>
+        <v>214.0336975200745</v>
       </c>
       <c r="AF45" s="48">
         <f t="shared" ref="AF45" si="144">(AF44-AF$3)^2</f>
-        <v>3024822.4550030828</v>
+        <v>140.46991475867779</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16599,126 +16599,126 @@
       </c>
       <c r="B46" s="20">
         <f>(B45/$AF$3)*100</f>
-        <v>3174.89014676634</v>
+        <v>21.635673465465079</v>
       </c>
       <c r="C46" s="21">
         <f>((C45)/($AF$3-$AA$3))*100</f>
-        <v>1357.1865326909046</v>
+        <v>10.38413189673229</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="5">
         <f>SUM(F46:AA46)</f>
-        <v>6683.6895754085062</v>
+        <v>23.972525474161621</v>
       </c>
       <c r="F46">
         <f>SQRT(F45)</f>
-        <v>9.9647167305578606</v>
+        <v>4.7573912954035748E-4</v>
       </c>
       <c r="G46">
         <f t="shared" ref="G46" si="145">SQRT(G45)</f>
-        <v>12.958574377795911</v>
+        <v>6.5672956054854356E-4</v>
       </c>
       <c r="H46">
         <f t="shared" ref="H46" si="146">SQRT(H45)</f>
-        <v>16.726212871424249</v>
+        <v>8.7048149502447583E-4</v>
       </c>
       <c r="I46">
         <f t="shared" ref="I46" si="147">SQRT(I45)</f>
-        <v>21.635248366835761</v>
+        <v>1.0834301403306998E-3</v>
       </c>
       <c r="J46">
         <f t="shared" ref="J46" si="148">SQRT(J45)</f>
-        <v>27.995127974573006</v>
+        <v>8.4363169052400697E-4</v>
       </c>
       <c r="K46">
         <f t="shared" ref="K46" si="149">SQRT(K45)</f>
-        <v>36.677427729072022</v>
+        <v>1.5935834523012034E-3</v>
       </c>
       <c r="L46">
         <f t="shared" ref="L46" si="150">SQRT(L45)</f>
-        <v>46.70401618253203</v>
+        <v>2.2136544599095304E-3</v>
       </c>
       <c r="M46">
         <f t="shared" ref="M46" si="151">SQRT(M45)</f>
-        <v>60.532036274944403</v>
+        <v>2.0765125519219708E-3</v>
       </c>
       <c r="N46">
         <f t="shared" ref="N46" si="152">SQRT(N45)</f>
-        <v>78.255607752736012</v>
+        <v>6.5560621775048906E-4</v>
       </c>
       <c r="O46">
         <f t="shared" ref="O46" si="153">SQRT(O45)</f>
-        <v>102.02478557524375</v>
+        <v>1.2086653898847714E-3</v>
       </c>
       <c r="P46">
         <f t="shared" ref="P46" si="154">SQRT(P45)</f>
-        <v>131.72598265339522</v>
+        <v>2.1274317570302452E-2</v>
       </c>
       <c r="Q46">
         <f t="shared" ref="Q46" si="155">SQRT(Q45)</f>
-        <v>168.79160619028016</v>
+        <v>3.9524607868203124E-2</v>
       </c>
       <c r="R46">
         <f t="shared" ref="R46" si="156">SQRT(R45)</f>
-        <v>216.84505190723641</v>
+        <v>6.9270172010543737E-2</v>
       </c>
       <c r="S46">
         <f t="shared" ref="S46" si="157">SQRT(S45)</f>
-        <v>269.39995667370755</v>
+        <v>0.14255183304758481</v>
       </c>
       <c r="T46">
         <f t="shared" ref="T46" si="158">SQRT(T45)</f>
-        <v>323.42752159847129</v>
+        <v>0.27339785778495035</v>
       </c>
       <c r="U46">
         <f t="shared" ref="U46" si="159">SQRT(U45)</f>
-        <v>412.8570131371203</v>
+        <v>0.51605472225831728</v>
       </c>
       <c r="V46">
         <f t="shared" ref="V46" si="160">SQRT(V45)</f>
-        <v>505.47440312399641</v>
+        <v>1.1521923231370559</v>
       </c>
       <c r="W46">
         <f t="shared" ref="W46" si="161">SQRT(W45)</f>
-        <v>607.80405305661645</v>
+        <v>2.1726968348852571</v>
       </c>
       <c r="X46">
         <f t="shared" ref="X46" si="162">SQRT(X45)</f>
-        <v>723.55117338480215</v>
+        <v>3.1709991150567234</v>
       </c>
       <c r="Y46">
         <f t="shared" ref="Y46" si="163">SQRT(Y45)</f>
-        <v>847.42856564447732</v>
+        <v>4.1142479990946548</v>
       </c>
       <c r="Z46">
         <f t="shared" ref="Z46" si="164">SQRT(Z45)</f>
-        <v>963.86665564974055</v>
+        <v>5.3346252209603788</v>
       </c>
       <c r="AA46">
         <f t="shared" ref="AA46" si="165">SQRT(AA45)</f>
-        <v>1099.043838552948</v>
+        <v>6.9540124363999141</v>
       </c>
       <c r="AB46" s="43">
         <f t="shared" ref="AB46" si="166">SQRT(AB45)</f>
-        <v>1238.8434950698772</v>
+        <v>8.9292491228810356</v>
       </c>
       <c r="AC46" s="44">
         <f t="shared" ref="AC46" si="167">SQRT(AC45)</f>
-        <v>1393.2553127141141</v>
+        <v>11.567500150538201</v>
       </c>
       <c r="AD46" s="44">
         <f t="shared" ref="AD46" si="168">SQRT(AD45)</f>
-        <v>1507.1491134007558</v>
+        <v>14.364833313377058</v>
       </c>
       <c r="AE46" s="44">
         <f t="shared" ref="AE46" si="169">SQRT(AE45)</f>
-        <v>1580.8060014577231</v>
+        <v>14.629890550515903</v>
       </c>
       <c r="AF46" s="45">
         <f t="shared" ref="AF46" si="170">SQRT(AF45)</f>
-        <v>1739.2016717457129</v>
+        <v>11.852000453876038</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16839,107 +16839,107 @@
       </c>
       <c r="F53">
         <f>G54-F54</f>
-        <v>2.7694143446222554</v>
+        <v>1.6475651849083973E-4</v>
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="171">H54-G54</f>
-        <v>3.5637159723888505</v>
+        <v>2.1545862792212139E-4</v>
       </c>
       <c r="H53">
         <f t="shared" ref="H53" si="172">I54-H54</f>
-        <v>4.7244433367460559</v>
+        <v>3.0660939328767056E-4</v>
       </c>
       <c r="I53">
         <f t="shared" ref="I53" si="173">J54-I54</f>
-        <v>6.2210724060144749</v>
+        <v>4.6844563461867126E-4</v>
       </c>
       <c r="J53">
         <f t="shared" ref="J53" si="174">K54-J54</f>
-        <v>8.5828693826187283</v>
+        <v>7.7404226334816203E-4</v>
       </c>
       <c r="K53">
         <f t="shared" ref="K53" si="175">L54-K54</f>
-        <v>10.100968224663823</v>
+        <v>1.6635887076395335E-3</v>
       </c>
       <c r="L53">
         <f t="shared" ref="L53" si="176">M54-L54</f>
-        <v>13.993762803046685</v>
+        <v>2.4200979345686208E-3</v>
       </c>
       <c r="M53">
         <f t="shared" ref="M53" si="177">N54-M54</f>
-        <v>18.06101008665874</v>
+        <v>3.7565307008763649E-3</v>
       </c>
       <c r="N53">
         <f t="shared" ref="N53" si="178">O54-N54</f>
-        <v>24.285207590657436</v>
+        <v>6.691441455417526E-3</v>
       </c>
       <c r="O53">
         <f t="shared" ref="O53" si="179">P54-O54</f>
-        <v>30.404894757359813</v>
+        <v>1.2857281875348129E-2</v>
       </c>
       <c r="P53">
         <f t="shared" ref="P53" si="180">Q54-P54</f>
-        <v>37.930767304603194</v>
+        <v>2.1082447572240755E-2</v>
       </c>
       <c r="Q53">
         <f t="shared" ref="Q53" si="181">R54-Q54</f>
-        <v>48.975994987784304</v>
+        <v>3.4147970540995276E-2</v>
       </c>
       <c r="R53">
         <f t="shared" ref="R53" si="182">S54-R54</f>
-        <v>53.338186326371499</v>
+        <v>8.3607512230684314E-2</v>
       </c>
       <c r="S53">
         <f t="shared" ref="S53" si="183">T54-S54</f>
-        <v>54.451498269778028</v>
+        <v>0.16993034085934985</v>
       </c>
       <c r="T53">
         <f t="shared" ref="T53" si="184">U54-T54</f>
-        <v>89.539002986442654</v>
+        <v>0.31378246731402248</v>
       </c>
       <c r="U53">
         <f t="shared" ref="U53" si="185">V54-U54</f>
-        <v>92.17168769662436</v>
+        <v>0.84301315950118849</v>
       </c>
       <c r="V53">
         <f t="shared" ref="V53" si="186">W54-V54</f>
-        <v>101.30213359705488</v>
+        <v>1.2112922319202302</v>
       </c>
       <c r="W53">
         <f t="shared" ref="W53" si="187">X54-W54</f>
-        <v>114.87923117729906</v>
+        <v>1.5667806936683326</v>
       </c>
       <c r="X53">
         <f t="shared" ref="X53" si="188">Y54-X54</f>
-        <v>124.62409563117058</v>
+        <v>2.6769805058273795</v>
       </c>
       <c r="Y53">
         <f t="shared" ref="Y53" si="189">Z54-Y54</f>
-        <v>118.93626591892109</v>
+        <v>3.234317220942506</v>
       </c>
       <c r="Z53">
         <f t="shared" ref="Z53" si="190">AA54-Z54</f>
-        <v>141.06233109173115</v>
+        <v>4.4019597425020791</v>
       </c>
       <c r="AA53">
         <f t="shared" ref="AA53" si="191">AB54-AA54</f>
-        <v>152.18502798923919</v>
+        <v>7.2616930202792389</v>
       </c>
       <c r="AB53" s="43">
         <f t="shared" ref="AB53" si="192">AC54-AB54</f>
-        <v>173.39012072697619</v>
+        <v>9.01740654933689</v>
       </c>
       <c r="AC53" s="44">
         <f t="shared" ref="AC53" si="193">AD54-AC54</f>
-        <v>139.41789273282188</v>
+        <v>10.075102164933249</v>
       </c>
       <c r="AD53" s="44">
         <f t="shared" ref="AD53" si="194">AE54-AD54</f>
-        <v>109.07052973265809</v>
+        <v>12.319455950299485</v>
       </c>
       <c r="AE53" s="44">
         <f t="shared" ref="AE53" si="195">AF54-AE54</f>
-        <v>212.45443043181945</v>
+        <v>17.114241115311742</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
@@ -16955,111 +16955,111 @@
       </c>
       <c r="F54" s="12">
         <f>$E$3+($C53/($C53+E5))*E4*(1/(1+EXP(-$A53*(F52-$B53))))</f>
-        <v>8.310080560004911</v>
+        <v>3.9674288782373202E-4</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" ref="G54:AF54" si="196">$E$3+($C53/($C53+F5))*F4*(1/(1+EXP(-$A53*(G52-$B53))))</f>
-        <v>11.079494904627166</v>
+        <v>5.6149940631457175E-4</v>
       </c>
       <c r="H54" s="12">
         <f t="shared" si="196"/>
-        <v>14.643210877016017</v>
+        <v>7.7695803423669314E-4</v>
       </c>
       <c r="I54" s="12">
         <f t="shared" si="196"/>
-        <v>19.367654213762073</v>
+        <v>1.0835674275243637E-3</v>
       </c>
       <c r="J54" s="12">
         <f t="shared" si="196"/>
-        <v>25.588726619776548</v>
+        <v>1.5520130621430349E-3</v>
       </c>
       <c r="K54" s="12">
         <f t="shared" si="196"/>
-        <v>34.171596002395276</v>
+        <v>2.326055325491197E-3</v>
       </c>
       <c r="L54" s="12">
         <f t="shared" si="196"/>
-        <v>44.2725642270591</v>
+        <v>3.9896440331307305E-3</v>
       </c>
       <c r="M54" s="12">
         <f t="shared" si="196"/>
-        <v>58.266327030105785</v>
+        <v>6.4097419676993513E-3</v>
       </c>
       <c r="N54" s="12">
         <f t="shared" si="196"/>
-        <v>76.327337116764525</v>
+        <v>1.0166272668575716E-2</v>
       </c>
       <c r="O54" s="12">
         <f t="shared" si="196"/>
-        <v>100.61254470742196</v>
+        <v>1.6857714123993242E-2</v>
       </c>
       <c r="P54" s="12">
         <f t="shared" si="196"/>
-        <v>131.01743946478177</v>
+        <v>2.9714995999341371E-2</v>
       </c>
       <c r="Q54" s="12">
         <f t="shared" si="196"/>
-        <v>168.94820676938497</v>
+        <v>5.0797443571582127E-2</v>
       </c>
       <c r="R54" s="12">
         <f t="shared" si="196"/>
-        <v>217.92420175716927</v>
+        <v>8.4945414112577403E-2</v>
       </c>
       <c r="S54" s="12">
         <f t="shared" si="196"/>
-        <v>271.26238808354077</v>
+        <v>0.16855292634326172</v>
       </c>
       <c r="T54" s="12">
         <f t="shared" si="196"/>
-        <v>325.7138863533188</v>
+        <v>0.33848326720261157</v>
       </c>
       <c r="U54" s="12">
         <f t="shared" si="196"/>
-        <v>415.25288933976145</v>
+        <v>0.65226573451663405</v>
       </c>
       <c r="V54" s="12">
         <f t="shared" si="196"/>
-        <v>507.42457703638581</v>
+        <v>1.4952788940178225</v>
       </c>
       <c r="W54" s="12">
         <f t="shared" si="196"/>
-        <v>608.72671063344069</v>
+        <v>2.7065711259380527</v>
       </c>
       <c r="X54" s="12">
         <f t="shared" si="196"/>
-        <v>723.60594181073975</v>
+        <v>4.2733518196063853</v>
       </c>
       <c r="Y54" s="12">
         <f t="shared" si="196"/>
-        <v>848.23003744191033</v>
+        <v>6.9503323254337648</v>
       </c>
       <c r="Z54" s="12">
         <f t="shared" si="196"/>
-        <v>967.16630336083142</v>
+        <v>10.184649546376271</v>
       </c>
       <c r="AA54" s="12">
         <f t="shared" si="196"/>
-        <v>1108.2286344525626</v>
+        <v>14.58660928887835</v>
       </c>
       <c r="AB54" s="52">
         <f t="shared" si="196"/>
-        <v>1260.4136624418018</v>
+        <v>21.848302309157589</v>
       </c>
       <c r="AC54" s="53">
         <f t="shared" si="196"/>
-        <v>1433.803783168778</v>
+        <v>30.865708858494479</v>
       </c>
       <c r="AD54" s="53">
         <f t="shared" si="196"/>
-        <v>1573.2216759015998</v>
+        <v>40.940811023427727</v>
       </c>
       <c r="AE54" s="53">
         <f t="shared" si="196"/>
-        <v>1682.2922056342579</v>
+        <v>53.260266973727212</v>
       </c>
       <c r="AF54" s="54">
         <f t="shared" si="196"/>
-        <v>1894.7466360660774</v>
+        <v>70.374508089038954</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
@@ -17068,126 +17068,126 @@
       </c>
       <c r="B55" s="17">
         <f>AF54-$AF$3</f>
-        <v>1839.9667353026728</v>
+        <v>15.594607325634321</v>
       </c>
       <c r="C55" s="18">
         <f>((AF54-AA54)-($AF$3-$AA$3))</f>
-        <v>739.34999502244443</v>
+        <v>8.6198922090902741</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="5">
         <f>SUM(F55:AA55)</f>
-        <v>4470110.9203623207</v>
+        <v>110.17413835448698</v>
       </c>
       <c r="F55" s="3">
         <f>(F54-F$3)^2</f>
-        <v>69.057438913771534</v>
+        <v>1.574049190387144E-7</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" ref="G55" si="197">(G54-G$3)^2</f>
-        <v>122.75520734165934</v>
+        <v>3.1528158329161653E-7</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" ref="H55" si="198">(H54-H$3)^2</f>
-        <v>214.42312691987937</v>
+        <v>5.7753621380089892E-7</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" ref="I55" si="199">(I54-I$3)^2</f>
-        <v>375.10110998455127</v>
+        <v>9.1500191890811376E-7</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" ref="J55" si="200">(J54-J$3)^2</f>
-        <v>654.65285606252155</v>
+        <v>9.7958415213780656E-7</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" ref="K55" si="201">(K54-K$3)^2</f>
-        <v>1167.4184330215635</v>
+        <v>3.1132254859672071E-6</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" ref="L55" si="202">(L54-L$3)^2</f>
-        <v>1959.491260125503</v>
+        <v>5.9211667544500621E-6</v>
       </c>
       <c r="M55" s="3">
         <f t="shared" ref="M55" si="203">(M54-M$3)^2</f>
-        <v>3393.9468589225971</v>
+        <v>5.4136212542415454E-6</v>
       </c>
       <c r="N55" s="3">
         <f t="shared" ref="N55" si="204">(N54-N$3)^2</f>
-        <v>5824.1710717722435</v>
+        <v>8.3523937629799622E-7</v>
       </c>
       <c r="O55" s="3">
         <f t="shared" ref="O55" si="205">(O54-O$3)^2</f>
-        <v>10119.200847279457</v>
+        <v>2.097731333241874E-6</v>
       </c>
       <c r="P55" s="3">
         <f t="shared" ref="P55" si="206">(P54-P$3)^2</f>
-        <v>17163.315145763005</v>
+        <v>4.4570250135966442E-4</v>
       </c>
       <c r="Q55" s="3">
         <f t="shared" ref="Q55" si="207">(Q54-Q$3)^2</f>
-        <v>28539.702414925832</v>
+        <v>1.5656516721290741E-3</v>
       </c>
       <c r="R55" s="3">
         <f t="shared" ref="R55" si="208">(R54-R$3)^2</f>
-        <v>47484.306660173927</v>
+        <v>4.8559809721341078E-3</v>
       </c>
       <c r="S55" s="3">
         <f t="shared" ref="S55" si="209">(S54-S$3)^2</f>
-        <v>73569.797025765642</v>
+        <v>2.0647860987161329E-2</v>
       </c>
       <c r="T55" s="3">
         <f t="shared" ref="T55" si="210">(T54-T$3)^2</f>
-        <v>106048.64655683665</v>
+        <v>7.6015244333775642E-2</v>
       </c>
       <c r="U55" s="3">
         <f t="shared" ref="U55" si="211">(U54-U$3)^2</f>
-        <v>172324.80811178952</v>
+        <v>0.26999425584105091</v>
       </c>
       <c r="V55" s="3">
         <f t="shared" ref="V55" si="212">(V54-V$3)^2</f>
-        <v>257136.45502812226</v>
+        <v>1.3385149884874981</v>
       </c>
       <c r="W55" s="3">
         <f t="shared" ref="W55" si="213">(W54-W$3)^2</f>
-        <v>369900.63826561591</v>
+        <v>4.7281597225070797</v>
       </c>
       <c r="X55" s="3">
         <f t="shared" ref="X55" si="214">(X54-X$3)^2</f>
-        <v>522002.4434488836</v>
+        <v>10.015805311278895</v>
       </c>
       <c r="Y55" s="3">
         <f t="shared" ref="Y55" si="215">(Y54-Y$3)^2</f>
-        <v>714662.51546608261</v>
+        <v>16.789004766776856</v>
       </c>
       <c r="Z55" s="3">
         <f t="shared" ref="Z55" si="216">(Z54-Z$3)^2</f>
-        <v>926020.86504294246</v>
+        <v>28.282457586388002</v>
       </c>
       <c r="AA55" s="3">
         <f t="shared" ref="AA55" si="217">(AA54-AA$3)^2</f>
-        <v>1211357.2089850754</v>
+        <v>48.646650956948044</v>
       </c>
       <c r="AB55" s="46">
         <f t="shared" ref="AB55" si="218">(AB54-AB$3)^2</f>
-        <v>1556623.5730351547</v>
+        <v>82.48008737966741</v>
       </c>
       <c r="AC55" s="47">
         <f t="shared" ref="AC55" si="219">(AC54-AC$3)^2</f>
-        <v>2002148.8636632715</v>
+        <v>144.84175778414291</v>
       </c>
       <c r="AD55" s="47">
         <f t="shared" ref="AD55" si="220">(AD54-AD$3)^2</f>
-        <v>2395378.3923628228</v>
+        <v>237.78063653782857</v>
       </c>
       <c r="AE55" s="47">
         <f t="shared" ref="AE55" si="221">(AE54-AE$3)^2</f>
-        <v>2708383.9981930922</v>
+        <v>278.38675121532208</v>
       </c>
       <c r="AF55" s="48">
         <f t="shared" ref="AF55" si="222">(AF54-AF$3)^2</f>
-        <v>3385477.5870203758</v>
+        <v>243.19177764072762</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17196,126 +17196,126 @@
       </c>
       <c r="B56" s="20">
         <f>(B55/$AF$3)*100</f>
-        <v>3358.8354664049539</v>
+        <v>28.46775388109538</v>
       </c>
       <c r="C56" s="21">
         <f>((C55)/($AF$3-$AA$3))*100</f>
-        <v>1567.481961729575</v>
+        <v>18.274870684745366</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="5">
         <f>SUM(F56:AA56)</f>
-        <v>6668.5236851482414</v>
+        <v>23.968358387776227</v>
       </c>
       <c r="F56">
         <f>SQRT(F55)</f>
-        <v>8.310080560004911</v>
+        <v>3.9674288782373202E-4</v>
       </c>
       <c r="G56">
         <f t="shared" ref="G56" si="223">SQRT(G55)</f>
-        <v>11.079494904627166</v>
+        <v>5.6149940631457175E-4</v>
       </c>
       <c r="H56">
         <f t="shared" ref="H56" si="224">SQRT(H55)</f>
-        <v>14.643193877016017</v>
+        <v>7.5995803423669316E-4</v>
       </c>
       <c r="I56">
         <f t="shared" ref="I56" si="225">SQRT(I55)</f>
-        <v>19.367527203661062</v>
+        <v>9.565573265142627E-4</v>
       </c>
       <c r="J56">
         <f t="shared" ref="J56" si="226">SQRT(J55)</f>
-        <v>25.586184867277918</v>
+        <v>9.8973943648710222E-4</v>
       </c>
       <c r="K56">
         <f t="shared" ref="K56" si="227">SQRT(K55)</f>
-        <v>34.167505513595273</v>
+        <v>1.7644334745088031E-3</v>
       </c>
       <c r="L56">
         <f t="shared" ref="L56" si="228">SQRT(L55)</f>
-        <v>44.266141238259102</v>
+        <v>2.43334476686927E-3</v>
       </c>
       <c r="M56">
         <f t="shared" ref="M56" si="229">SQRT(M55)</f>
-        <v>58.257590569148988</v>
+        <v>2.3267189891006488E-3</v>
       </c>
       <c r="N56">
         <f t="shared" ref="N56" si="230">SQRT(N55)</f>
-        <v>76.316256929780323</v>
+        <v>9.1391431562154457E-4</v>
       </c>
       <c r="O56">
         <f t="shared" ref="O56" si="231">SQRT(O55)</f>
-        <v>100.59423863859926</v>
+        <v>1.4483546986984487E-3</v>
       </c>
       <c r="P56">
         <f t="shared" ref="P56" si="232">SQRT(P55)</f>
-        <v>131.00883613620496</v>
+        <v>2.111166742253355E-2</v>
       </c>
       <c r="Q56">
         <f t="shared" ref="Q56" si="233">SQRT(Q55)</f>
-        <v>168.93697764233215</v>
+        <v>3.9568316518763774E-2</v>
       </c>
       <c r="R56">
         <f t="shared" ref="R56" si="234">SQRT(R55)</f>
-        <v>217.90894121208962</v>
+        <v>6.9684869032912072E-2</v>
       </c>
       <c r="S56">
         <f t="shared" ref="S56" si="235">SQRT(S55)</f>
-        <v>271.23752879305925</v>
+        <v>0.1436936358617226</v>
       </c>
       <c r="T56">
         <f t="shared" ref="T56" si="236">SQRT(T55)</f>
-        <v>325.65111170827691</v>
+        <v>0.27570862216074354</v>
       </c>
       <c r="U56">
         <f t="shared" ref="U56" si="237">SQRT(U55)</f>
-        <v>415.12023332016656</v>
+        <v>0.51960971492173902</v>
       </c>
       <c r="V56">
         <f t="shared" ref="V56" si="238">SQRT(V55)</f>
-        <v>507.08624022755959</v>
+        <v>1.1569420851916046</v>
       </c>
       <c r="W56">
         <f t="shared" ref="W56" si="239">SQRT(W55)</f>
-        <v>608.19457270319003</v>
+        <v>2.1744331956873451</v>
       </c>
       <c r="X56">
         <f t="shared" ref="X56" si="240">SQRT(X55)</f>
-        <v>722.49736570376751</v>
+        <v>3.1647757126341345</v>
       </c>
       <c r="Y56">
         <f t="shared" ref="Y56" si="241">SQRT(Y55)</f>
-        <v>845.37714392221574</v>
+        <v>4.0974388057391238</v>
       </c>
       <c r="Z56">
         <f t="shared" ref="Z56" si="242">SQRT(Z55)</f>
-        <v>962.29977919718056</v>
+        <v>5.3181253827253832</v>
       </c>
       <c r="AA56">
         <f t="shared" ref="AA56" si="243">SQRT(AA55)</f>
-        <v>1100.6167402802282</v>
+        <v>6.9747151165440471</v>
       </c>
       <c r="AB56" s="43">
         <f t="shared" ref="AB56" si="244">SQRT(AB55)</f>
-        <v>1247.6472149751125</v>
+        <v>9.081854842468438</v>
       </c>
       <c r="AC56" s="44">
         <f t="shared" ref="AC56" si="245">SQRT(AC55)</f>
-        <v>1414.9730964450425</v>
+        <v>12.03502213475916</v>
       </c>
       <c r="AD56" s="44">
         <f t="shared" ref="AD56" si="246">SQRT(AD55)</f>
-        <v>1547.7010022490851</v>
+        <v>15.420137370913029</v>
       </c>
       <c r="AE56" s="44">
         <f t="shared" ref="AE56" si="247">SQRT(AE55)</f>
-        <v>1645.7168645283709</v>
+        <v>16.684925867840171</v>
       </c>
       <c r="AF56" s="45">
         <f t="shared" ref="AF56" si="248">SQRT(AF55)</f>
-        <v>1839.9667353026728</v>
+        <v>15.594607325634321</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18033,107 +18033,107 @@
       </c>
       <c r="F72">
         <f>G73-F73</f>
-        <v>2.1258961499737858</v>
+        <v>1.1839014549796948E-4</v>
       </c>
       <c r="G72">
         <f t="shared" ref="G72" si="327">H73-G73</f>
-        <v>3.0683380132166</v>
+        <v>1.764961573431493E-4</v>
       </c>
       <c r="H72">
         <f t="shared" ref="H72" si="328">I73-H73</f>
-        <v>4.4057930511737169</v>
+        <v>2.7196768101142468E-4</v>
       </c>
       <c r="I72">
         <f t="shared" ref="I72" si="329">J73-I73</f>
-        <v>6.1698719826129818</v>
+        <v>4.3644857045186238E-4</v>
       </c>
       <c r="J72">
         <f t="shared" ref="J72" si="330">K73-J73</f>
-        <v>8.8049099975777416</v>
+        <v>7.4322735660284291E-4</v>
       </c>
       <c r="K72">
         <f t="shared" ref="K72" si="331">L73-K73</f>
-        <v>10.892760898573258</v>
+        <v>1.6033321793276119E-3</v>
       </c>
       <c r="L72">
         <f t="shared" ref="L72" si="332">M73-L73</f>
-        <v>15.107742408165805</v>
+        <v>2.4396413773989842E-3</v>
       </c>
       <c r="M72">
         <f t="shared" ref="M72" si="333">N73-M73</f>
-        <v>19.579937239398951</v>
+        <v>3.8646138158544181E-3</v>
       </c>
       <c r="N72">
         <f t="shared" ref="N72" si="334">O73-N73</f>
-        <v>26.092256544702252</v>
+        <v>6.9067681854918482E-3</v>
       </c>
       <c r="O72">
         <f t="shared" ref="O72" si="335">P73-O73</f>
-        <v>32.355136333687767</v>
+        <v>1.3255866682955964E-2</v>
       </c>
       <c r="P72">
         <f t="shared" ref="P72" si="336">Q73-P73</f>
-        <v>39.728572622539531</v>
+        <v>2.1712528076888133E-2</v>
       </c>
       <c r="Q72">
         <f t="shared" ref="Q72" si="337">R73-Q73</f>
-        <v>50.329108745936651</v>
+        <v>3.4943665251089336E-2</v>
       </c>
       <c r="R72">
         <f t="shared" ref="R72" si="338">S73-R73</f>
-        <v>53.762618180290303</v>
+        <v>8.4881598295829419E-2</v>
       </c>
       <c r="S72">
         <f t="shared" ref="S72" si="339">T73-S73</f>
-        <v>53.723981452839041</v>
+        <v>0.17117470247307942</v>
       </c>
       <c r="T72">
         <f t="shared" ref="T72" si="340">U73-T73</f>
-        <v>88.016552996291637</v>
+        <v>0.31354918254163217</v>
       </c>
       <c r="U72">
         <f t="shared" ref="U72" si="341">V73-U73</f>
-        <v>89.648540714488377</v>
+        <v>0.83906965886154228</v>
       </c>
       <c r="V72">
         <f t="shared" ref="V72" si="342">W73-V73</f>
-        <v>98.494148461441114</v>
+        <v>1.1988286866332913</v>
       </c>
       <c r="W72">
         <f t="shared" ref="W72" si="343">X73-W73</f>
-        <v>112.73904534925236</v>
+        <v>1.5500646773803113</v>
       </c>
       <c r="X72">
         <f t="shared" ref="X72" si="344">Y73-X73</f>
-        <v>124.46495323320266</v>
+        <v>2.664386543278483</v>
       </c>
       <c r="Y72">
         <f t="shared" ref="Y72" si="345">Z73-Y73</f>
-        <v>122.34270990565051</v>
+        <v>3.2582889004116184</v>
       </c>
       <c r="Z72">
         <f t="shared" ref="Z72" si="346">AA73-Z73</f>
-        <v>149.55674063584684</v>
+        <v>4.509325616412001</v>
       </c>
       <c r="AA72">
         <f t="shared" ref="AA72" si="347">AB73-AA73</f>
-        <v>167.62150794257354</v>
+        <v>7.5576760865238644</v>
       </c>
       <c r="AB72" s="43">
         <f t="shared" ref="AB72" si="348">AC73-AB73</f>
-        <v>197.90882814580596</v>
+        <v>9.6384933557705459</v>
       </c>
       <c r="AC72" s="44">
         <f t="shared" ref="AC72" si="349">AD73-AC73</f>
-        <v>172.52888043225471</v>
+        <v>11.147033121177131</v>
       </c>
       <c r="AD72" s="44">
         <f t="shared" ref="AD72" si="350">AE73-AD73</f>
-        <v>149.93168854893634</v>
+        <v>14.063247385333604</v>
       </c>
       <c r="AE72" s="44">
         <f t="shared" ref="AE72" si="351">AF73-AE73</f>
-        <v>272.11666980485052</v>
+        <v>19.992149555257427</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
@@ -18149,111 +18149,111 @@
       </c>
       <c r="F73">
         <f>$E$3+(E4*$C72)*(EXP(-EXP($A72-$B72*F71)))</f>
-        <v>3.6269318817343055</v>
+        <v>1.7315830072992466E-4</v>
       </c>
       <c r="G73">
         <f t="shared" ref="G73:AF73" si="352">$E$3+(F4*$C72)*(EXP(-EXP($A72-$B72*G71)))</f>
-        <v>5.7528280317080913</v>
+        <v>2.9154844622789413E-4</v>
       </c>
       <c r="H73">
         <f t="shared" si="352"/>
-        <v>8.8211660449246914</v>
+        <v>4.6804460357104344E-4</v>
       </c>
       <c r="I73">
         <f t="shared" si="352"/>
-        <v>13.226959096098408</v>
+        <v>7.4001228458246812E-4</v>
       </c>
       <c r="J73">
         <f t="shared" si="352"/>
-        <v>19.39683107871139</v>
+        <v>1.1764608550343305E-3</v>
       </c>
       <c r="K73">
         <f t="shared" si="352"/>
-        <v>28.201741076289132</v>
+        <v>1.9196882116371734E-3</v>
       </c>
       <c r="L73">
         <f t="shared" si="352"/>
-        <v>39.094501974862389</v>
+        <v>3.5230203909647853E-3</v>
       </c>
       <c r="M73">
         <f t="shared" si="352"/>
-        <v>54.202244383028194</v>
+        <v>5.9626617683637695E-3</v>
       </c>
       <c r="N73">
         <f t="shared" si="352"/>
-        <v>73.782181622427146</v>
+        <v>9.8272755842181876E-3</v>
       </c>
       <c r="O73">
         <f t="shared" si="352"/>
-        <v>99.874438167129398</v>
+        <v>1.6734043769710036E-2</v>
       </c>
       <c r="P73">
         <f t="shared" si="352"/>
-        <v>132.22957450081717</v>
+        <v>2.9989910452666E-2</v>
       </c>
       <c r="Q73">
         <f t="shared" si="352"/>
-        <v>171.9581471233567</v>
+        <v>5.1702438529554133E-2</v>
       </c>
       <c r="R73">
         <f t="shared" si="352"/>
-        <v>222.28725586929335</v>
+        <v>8.6646103780643469E-2</v>
       </c>
       <c r="S73">
         <f t="shared" si="352"/>
-        <v>276.04987404958365</v>
+        <v>0.17152770207647289</v>
       </c>
       <c r="T73">
         <f t="shared" si="352"/>
-        <v>329.77385550242269</v>
+        <v>0.34270240454955231</v>
       </c>
       <c r="U73">
         <f t="shared" si="352"/>
-        <v>417.79040849871433</v>
+        <v>0.65625158709118447</v>
       </c>
       <c r="V73">
         <f t="shared" si="352"/>
-        <v>507.4389492132027</v>
+        <v>1.4953212459527268</v>
       </c>
       <c r="W73">
         <f t="shared" si="352"/>
-        <v>605.93309767464382</v>
+        <v>2.6941499325860181</v>
       </c>
       <c r="X73">
         <f t="shared" si="352"/>
-        <v>718.67214302389618</v>
+        <v>4.2442146099663294</v>
       </c>
       <c r="Y73">
         <f t="shared" si="352"/>
-        <v>843.13709625709885</v>
+        <v>6.9086011532448124</v>
       </c>
       <c r="Z73">
         <f t="shared" si="352"/>
-        <v>965.47980616274936</v>
+        <v>10.166890053656431</v>
       </c>
       <c r="AA73">
         <f t="shared" si="352"/>
-        <v>1115.0365467985962</v>
+        <v>14.676215670068432</v>
       </c>
       <c r="AB73" s="43">
         <f t="shared" si="352"/>
-        <v>1282.6580547411697</v>
+        <v>22.233891756592296</v>
       </c>
       <c r="AC73" s="44">
         <f t="shared" si="352"/>
-        <v>1480.5668828869757</v>
+        <v>31.872385112362842</v>
       </c>
       <c r="AD73" s="44">
         <f t="shared" si="352"/>
-        <v>1653.0957633192304</v>
+        <v>43.019418233539973</v>
       </c>
       <c r="AE73" s="44">
         <f t="shared" si="352"/>
-        <v>1803.0274518681667</v>
+        <v>57.082665618873577</v>
       </c>
       <c r="AF73" s="45">
         <f t="shared" si="352"/>
-        <v>2075.1441216730173</v>
+        <v>77.074815174131004</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
@@ -18262,126 +18262,126 @@
       </c>
       <c r="B74" s="17">
         <f>AF73-$AF$3</f>
-        <v>2020.3642209096126</v>
+        <v>22.294914410726371</v>
       </c>
       <c r="C74" s="18">
         <f>((AF73-AA73)-($AF$3-$AA$3))</f>
-        <v>912.9395682833507</v>
+        <v>15.230592912992243</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="5">
         <f>SUM(F74:AA74)</f>
-        <v>4470942.2715689726</v>
+        <v>110.67366118761772</v>
       </c>
       <c r="F74" s="3">
         <f>(F73-F$3)^2</f>
-        <v>13.154634874740751</v>
+        <v>2.9983797111675025E-8</v>
       </c>
       <c r="G74" s="3">
         <f t="shared" ref="G74" si="353">(G73-G$3)^2</f>
-        <v>33.095030362406391</v>
+        <v>8.5000496497899273E-8</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" ref="H74" si="354">(H73-H$3)^2</f>
-        <v>77.812670472775807</v>
+        <v>2.0344123441055976E-7</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" ref="I74" si="355">(I73-I$3)^2</f>
-        <v>174.94908703117028</v>
+        <v>3.757716770644901E-7</v>
       </c>
       <c r="J74" s="3">
         <f t="shared" ref="J74" si="356">(J73-J$3)^2</f>
-        <v>376.13845846885022</v>
+        <v>1.8640212720725392E-6</v>
       </c>
       <c r="K74" s="3">
         <f t="shared" ref="K74" si="357">(K73-K$3)^2</f>
-        <v>795.10749865412618</v>
+        <v>4.7123751944363952E-6</v>
       </c>
       <c r="L74" s="3">
         <f t="shared" ref="L74" si="358">(L73-L$3)^2</f>
-        <v>1527.8779188206524</v>
+        <v>8.4098167734022374E-6</v>
       </c>
       <c r="M74" s="3">
         <f t="shared" ref="M74" si="359">(M73-M$3)^2</f>
-        <v>2936.9363008996152</v>
+        <v>7.6939619377694911E-6</v>
       </c>
       <c r="N74" s="3">
         <f t="shared" ref="N74" si="360">(N73-N$3)^2</f>
-        <v>5442.1754069984117</v>
+        <v>1.5697869761975208E-6</v>
       </c>
       <c r="O74" s="3">
         <f t="shared" ref="O74" si="361">(O73-O$3)^2</f>
-        <v>9971.2471176344789</v>
+        <v>2.4712627672019751E-6</v>
       </c>
       <c r="P74" s="3">
         <f t="shared" ref="P74" si="362">(P73-P$3)^2</f>
-        <v>17482.385217730414</v>
+        <v>4.5738588433278559E-4</v>
       </c>
       <c r="Q74" s="3">
         <f t="shared" ref="Q74" si="363">(Q73-Q$3)^2</f>
-        <v>29565.742608427652</v>
+        <v>1.6380889418928723E-3</v>
       </c>
       <c r="R74" s="3">
         <f t="shared" ref="R74" si="364">(R73-R$3)^2</f>
-        <v>49404.839905407272</v>
+        <v>5.0958979910507955E-3</v>
       </c>
       <c r="S74" s="3">
         <f t="shared" ref="S74" si="365">(S73-S$3)^2</f>
-        <v>76189.808772762553</v>
+        <v>2.1511622959780902E-2</v>
       </c>
       <c r="T74" s="3">
         <f t="shared" ref="T74" si="366">(T73-T$3)^2</f>
-        <v>108709.3968401423</v>
+        <v>7.8359550542991929E-2</v>
       </c>
       <c r="U74" s="3">
         <f t="shared" ref="U74" si="367">(U73-U$3)^2</f>
-        <v>174437.99820590939</v>
+        <v>0.2741523183017614</v>
       </c>
       <c r="V74" s="3">
         <f t="shared" ref="V74" si="368">(V73-V$3)^2</f>
-        <v>257151.03110089366</v>
+        <v>1.3386129877529442</v>
       </c>
       <c r="W74" s="3">
         <f t="shared" ref="W74" si="369">(W73-W$3)^2</f>
-        <v>366510.32205943234</v>
+        <v>4.6742958982419385</v>
       </c>
       <c r="X74" s="3">
         <f t="shared" ref="X74" si="370">(X73-X$3)^2</f>
-        <v>514897.47256653878</v>
+        <v>9.8322288214589459</v>
       </c>
       <c r="Y74" s="3">
         <f t="shared" ref="Y74" si="371">(Y73-Y$3)^2</f>
-        <v>706077.54137003515</v>
+        <v>16.448764408837132</v>
       </c>
       <c r="Z74" s="3">
         <f t="shared" ref="Z74" si="372">(Z73-Z$3)^2</f>
-        <v>922777.87755307951</v>
+        <v>28.093878567934254</v>
       </c>
       <c r="AA74" s="3">
         <f t="shared" ref="AA74" si="373">(AA73-AA$3)^2</f>
-        <v>1226389.3612443968</v>
+        <v>49.90463822334857</v>
       </c>
       <c r="AB74" s="46">
         <f t="shared" ref="AB74" si="374">(AB73-AB$3)^2</f>
-        <v>1612624.6942261634</v>
+        <v>89.632501382419676</v>
       </c>
       <c r="AC74" s="47">
         <f t="shared" ref="AC74" si="375">(AC73-AC$3)^2</f>
-        <v>2136672.7071737787</v>
+        <v>170.08589685992973</v>
       </c>
       <c r="AD74" s="47">
         <f t="shared" ref="AD74" si="376">(AD73-AD$3)^2</f>
-        <v>2649000.6725036176</v>
+        <v>306.2060619119614</v>
       </c>
       <c r="AE74" s="47">
         <f t="shared" ref="AE74" si="377">(AE73-AE$3)^2</f>
-        <v>3120353.0596165136</v>
+        <v>420.55035868093847</v>
       </c>
       <c r="AF74" s="48">
         <f t="shared" ref="AF74" si="378">(AF73-AF$3)^2</f>
-        <v>4081871.5851317062</v>
+        <v>497.06320858161439</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18390,126 +18390,126 @@
       </c>
       <c r="B75" s="20">
         <f>(B74/$AF$3)*100</f>
-        <v>3688.1487420643602</v>
+        <v>40.699077763974969</v>
       </c>
       <c r="C75" s="21">
         <f>((C74)/($AF$3-$AA$3))*100</f>
-        <v>1935.5059377391306</v>
+        <v>32.290092403174917</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="5">
         <f>SUM(F75:AA75)</f>
-        <v>6634.149510416768</v>
+        <v>23.972030704214717</v>
       </c>
       <c r="F75">
         <f>SQRT(F74)</f>
-        <v>3.6269318817343055</v>
+        <v>1.7315830072992466E-4</v>
       </c>
       <c r="G75">
         <f t="shared" ref="G75" si="379">SQRT(G74)</f>
-        <v>5.7528280317080913</v>
+        <v>2.9154844622789413E-4</v>
       </c>
       <c r="H75">
         <f t="shared" ref="H75" si="380">SQRT(H74)</f>
-        <v>8.8211490449246917</v>
+        <v>4.5104460357104346E-4</v>
       </c>
       <c r="I75">
         <f t="shared" ref="I75" si="381">SQRT(I74)</f>
-        <v>13.226832085997398</v>
+        <v>6.1300218357236713E-4</v>
       </c>
       <c r="J75">
         <f t="shared" ref="J75" si="382">SQRT(J74)</f>
-        <v>19.39428932621276</v>
+        <v>1.3652916435958067E-3</v>
       </c>
       <c r="K75">
         <f t="shared" ref="K75" si="383">SQRT(K74)</f>
-        <v>28.197650587489132</v>
+        <v>2.1708005883628268E-3</v>
       </c>
       <c r="L75">
         <f t="shared" ref="L75" si="384">SQRT(L74)</f>
-        <v>39.088078986062392</v>
+        <v>2.8999684090352152E-3</v>
       </c>
       <c r="M75">
         <f t="shared" ref="M75" si="385">SQRT(M74)</f>
-        <v>54.193507922071397</v>
+        <v>2.7737991884362306E-3</v>
       </c>
       <c r="N75">
         <f t="shared" ref="N75" si="386">SQRT(N74)</f>
-        <v>73.771101435442944</v>
+        <v>1.2529113999790731E-3</v>
       </c>
       <c r="O75">
         <f t="shared" ref="O75" si="387">SQRT(O74)</f>
-        <v>99.856132098306702</v>
+        <v>1.572025052981655E-3</v>
       </c>
       <c r="P75">
         <f t="shared" ref="P75" si="388">SQRT(P74)</f>
-        <v>132.22097117224035</v>
+        <v>2.1386581875858179E-2</v>
       </c>
       <c r="Q75">
         <f t="shared" ref="Q75" si="389">SQRT(Q74)</f>
-        <v>171.94691799630388</v>
+        <v>4.0473311476735781E-2</v>
       </c>
       <c r="R75">
         <f t="shared" ref="R75" si="390">SQRT(R74)</f>
-        <v>222.27199532421369</v>
+        <v>7.1385558700978138E-2</v>
       </c>
       <c r="S75">
         <f t="shared" ref="S75" si="391">SQRT(S74)</f>
-        <v>276.02501475910213</v>
+        <v>0.14666841159493377</v>
       </c>
       <c r="T75">
         <f t="shared" ref="T75" si="392">SQRT(T74)</f>
-        <v>329.71108085738081</v>
+        <v>0.27992775950768428</v>
       </c>
       <c r="U75">
         <f t="shared" ref="U75" si="393">SQRT(U74)</f>
-        <v>417.65775247911944</v>
+        <v>0.52359556749628944</v>
       </c>
       <c r="V75">
         <f t="shared" ref="V75" si="394">SQRT(V74)</f>
-        <v>507.10061240437648</v>
+        <v>1.1569844371265088</v>
       </c>
       <c r="W75">
         <f t="shared" ref="W75" si="395">SQRT(W74)</f>
-        <v>605.40095974439316</v>
+        <v>2.1620120023353104</v>
       </c>
       <c r="X75">
         <f t="shared" ref="X75" si="396">SQRT(X74)</f>
-        <v>717.56356691692395</v>
+        <v>3.1356385029940785</v>
       </c>
       <c r="Y75">
         <f t="shared" ref="Y75" si="397">SQRT(Y74)</f>
-        <v>840.28420273740426</v>
+        <v>4.0557076335501714</v>
       </c>
       <c r="Z75">
         <f t="shared" ref="Z75" si="398">SQRT(Z74)</f>
-        <v>960.61328199909849</v>
+        <v>5.3003658900055433</v>
       </c>
       <c r="AA75">
         <f t="shared" ref="AA75" si="399">SQRT(AA74)</f>
-        <v>1107.4246526262618</v>
+        <v>7.0643214977341291</v>
       </c>
       <c r="AB75" s="43">
         <f t="shared" ref="AB75" si="400">SQRT(AB74)</f>
-        <v>1269.8916072744805</v>
+        <v>9.4674442899031455</v>
       </c>
       <c r="AC75" s="44">
         <f t="shared" ref="AC75" si="401">SQRT(AC74)</f>
-        <v>1461.7361961632403</v>
+        <v>13.041698388627523</v>
       </c>
       <c r="AD75" s="44">
         <f t="shared" ref="AD75" si="402">SQRT(AD74)</f>
-        <v>1627.5750896667157</v>
+        <v>17.498744581025274</v>
       </c>
       <c r="AE75" s="44">
         <f t="shared" ref="AE75" si="403">SQRT(AE74)</f>
-        <v>1766.4521107622797</v>
+        <v>20.507324512986536</v>
       </c>
       <c r="AF75" s="45">
         <f t="shared" ref="AF75" si="404">SQRT(AF74)</f>
-        <v>2020.3642209096126</v>
+        <v>22.294914410726371</v>
       </c>
     </row>
     <row r="80" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18630,107 +18630,107 @@
       </c>
       <c r="F82">
         <f>G83-F83</f>
-        <v>2.0953072327983961</v>
+        <v>1.1639199134280828E-4</v>
       </c>
       <c r="G82">
         <f t="shared" ref="G82" si="405">H83-G83</f>
-        <v>3.043276329398747</v>
+        <v>1.7473057050694394E-4</v>
       </c>
       <c r="H82">
         <f t="shared" ref="H82" si="406">I83-H83</f>
-        <v>4.3881534514993739</v>
+        <v>2.7037958110278135E-4</v>
       </c>
       <c r="I82">
         <f t="shared" ref="I82" si="407">J83-I83</f>
-        <v>6.1632393167336907</v>
+        <v>4.3498383580171582E-4</v>
       </c>
       <c r="J82">
         <f t="shared" ref="J82" si="408">K83-J83</f>
-        <v>8.8090656843884787</v>
+        <v>7.4178602145776235E-4</v>
       </c>
       <c r="K82">
         <f t="shared" ref="K82" si="409">L83-K83</f>
-        <v>10.918034162412962</v>
+        <v>1.6005768421568801E-3</v>
       </c>
       <c r="L82">
         <f t="shared" ref="L82" si="410">M83-L83</f>
-        <v>15.143232303746359</v>
+        <v>2.439507052046562E-3</v>
       </c>
       <c r="M82">
         <f t="shared" ref="M82" si="411">N83-M83</f>
-        <v>19.627528157613803</v>
+        <v>3.8670683649141184E-3</v>
       </c>
       <c r="N82">
         <f t="shared" ref="N82" si="412">O83-N83</f>
-        <v>26.146538501287992</v>
+        <v>6.9117423676853945E-3</v>
       </c>
       <c r="O82">
         <f t="shared" ref="O82" si="413">P83-O83</f>
-        <v>32.411887037432166</v>
+        <v>1.3264847650729075E-2</v>
       </c>
       <c r="P82">
         <f t="shared" ref="P82" si="414">Q83-P83</f>
-        <v>39.779507222381568</v>
+        <v>2.1727184698070626E-2</v>
       </c>
       <c r="Q82">
         <f t="shared" ref="Q82" si="415">R83-Q83</f>
-        <v>50.36725827432889</v>
+        <v>3.4962281515779216E-2</v>
       </c>
       <c r="R82">
         <f t="shared" ref="R82" si="416">S83-R83</f>
-        <v>53.778822572547853</v>
+        <v>8.4910234225626421E-2</v>
       </c>
       <c r="S82">
         <f t="shared" ref="S82" si="417">T83-S83</f>
-        <v>53.714696395637532</v>
+        <v>0.17120532603066815</v>
       </c>
       <c r="T82">
         <f t="shared" ref="T82" si="418">U83-T83</f>
-        <v>87.991433495326532</v>
+        <v>0.31355602372607327</v>
       </c>
       <c r="U82">
         <f t="shared" ref="U82" si="419">V83-U83</f>
-        <v>89.604131459954772</v>
+        <v>0.83902407807655266</v>
       </c>
       <c r="V82">
         <f t="shared" ref="V82" si="420">W83-V83</f>
-        <v>98.444572139634715</v>
+        <v>1.1986346010281308</v>
       </c>
       <c r="W82">
         <f t="shared" ref="W82" si="421">X83-W83</f>
-        <v>112.70136490374171</v>
+        <v>1.5497954408669323</v>
       </c>
       <c r="X82">
         <f t="shared" ref="X82" si="422">Y83-X83</f>
-        <v>124.46144207286591</v>
+        <v>2.6641983077960179</v>
       </c>
       <c r="Y82">
         <f t="shared" ref="Y82" si="423">Z83-Y83</f>
-        <v>122.40011759047889</v>
+        <v>3.2587223992437062</v>
       </c>
       <c r="Z82">
         <f t="shared" ref="Z82" si="424">AA83-Z83</f>
-        <v>149.70231544791272</v>
+        <v>4.5112001286456636</v>
       </c>
       <c r="AA82">
         <f t="shared" ref="AA82" si="425">AB83-AA83</f>
-        <v>167.88959378834829</v>
+        <v>7.5628646245153917</v>
       </c>
       <c r="AB82" s="43">
         <f t="shared" ref="AB82" si="426">AC83-AB83</f>
-        <v>198.34199542906731</v>
+        <v>9.649486447642154</v>
       </c>
       <c r="AC82" s="44">
         <f t="shared" ref="AC82" si="427">AD83-AC83</f>
-        <v>173.12627321409991</v>
+        <v>11.166316074921884</v>
       </c>
       <c r="AD82" s="44">
         <f t="shared" ref="AD82" si="428">AE83-AD83</f>
-        <v>150.68785981060228</v>
+        <v>14.095237607851473</v>
       </c>
       <c r="AE82" s="44">
         <f t="shared" ref="AE82" si="429">AF83-AE83</f>
-        <v>273.2441395799699</v>
+        <v>20.046003154377296</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
@@ -18746,111 +18746,111 @@
       </c>
       <c r="F83">
         <f>$E$3+($C82/($C82+E5))*E4*(EXP(-EXP($A82-$B82*F81)))</f>
-        <v>3.4744068390269205</v>
+        <v>1.6587639467953007E-4</v>
       </c>
       <c r="G83">
         <f>$E$3+($C82/($C82+F5))*F4*(EXP(-EXP($A82-$B82*G81)))</f>
-        <v>5.5697140718253166</v>
+        <v>2.8226838602233835E-4</v>
       </c>
       <c r="H83">
         <f>$E$3+($C82/($C82+G5))*G4*(EXP(-EXP($A82-$B82*H81)))</f>
-        <v>8.6129904012240637</v>
+        <v>4.5699895652928229E-4</v>
       </c>
       <c r="I83">
         <f t="shared" ref="I83:AF83" si="430">$E$3+($C82/($C82+H5))*H4*(EXP(-EXP($A82-$B82*I81)))</f>
-        <v>13.001143852723438</v>
+        <v>7.2737853763206364E-4</v>
       </c>
       <c r="J83">
         <f t="shared" si="430"/>
-        <v>19.164383169457128</v>
+        <v>1.1623623734337795E-3</v>
       </c>
       <c r="K83">
         <f t="shared" si="430"/>
-        <v>27.973448853845607</v>
+        <v>1.9041483948915418E-3</v>
       </c>
       <c r="L83">
         <f t="shared" si="430"/>
-        <v>38.891483016258569</v>
+        <v>3.5047252370484219E-3</v>
       </c>
       <c r="M83">
         <f t="shared" si="430"/>
-        <v>54.034715320004928</v>
+        <v>5.9442322890949839E-3</v>
       </c>
       <c r="N83">
         <f t="shared" si="430"/>
-        <v>73.66224347761873</v>
+        <v>9.8113006540091023E-3</v>
       </c>
       <c r="O83">
         <f t="shared" si="430"/>
-        <v>99.808781978906723</v>
+        <v>1.6723043021694497E-2</v>
       </c>
       <c r="P83">
         <f t="shared" si="430"/>
-        <v>132.22066901633889</v>
+        <v>2.9987890672423571E-2</v>
       </c>
       <c r="Q83">
         <f t="shared" si="430"/>
-        <v>172.00017623872046</v>
+        <v>5.1715075370494197E-2</v>
       </c>
       <c r="R83">
         <f t="shared" si="430"/>
-        <v>222.36743451304935</v>
+        <v>8.6677356886273413E-2</v>
       </c>
       <c r="S83">
         <f t="shared" si="430"/>
-        <v>276.1462570855972</v>
+        <v>0.17158759111189983</v>
       </c>
       <c r="T83">
         <f t="shared" si="430"/>
-        <v>329.86095348123473</v>
+        <v>0.34279291714256799</v>
       </c>
       <c r="U83">
         <f t="shared" si="430"/>
-        <v>417.85238697656126</v>
+        <v>0.65634894086864126</v>
       </c>
       <c r="V83">
         <f t="shared" si="430"/>
-        <v>507.45651843651603</v>
+        <v>1.4953730189451939</v>
       </c>
       <c r="W83">
         <f t="shared" si="430"/>
-        <v>605.90109057615075</v>
+        <v>2.6940076199733247</v>
       </c>
       <c r="X83">
         <f t="shared" si="430"/>
-        <v>718.60245547989246</v>
+        <v>4.243803060840257</v>
       </c>
       <c r="Y83">
         <f t="shared" si="430"/>
-        <v>843.06389755275836</v>
+        <v>6.9080013686362749</v>
       </c>
       <c r="Z83">
         <f t="shared" si="430"/>
-        <v>965.46401514323725</v>
+        <v>10.166723767879981</v>
       </c>
       <c r="AA83">
         <f t="shared" si="430"/>
-        <v>1115.16633059115</v>
+        <v>14.677923896525645</v>
       </c>
       <c r="AB83" s="43">
         <f t="shared" si="430"/>
-        <v>1283.0559243794983</v>
+        <v>22.240788521041036</v>
       </c>
       <c r="AC83" s="44">
         <f t="shared" si="430"/>
-        <v>1481.3979198085656</v>
+        <v>31.89027496868319</v>
       </c>
       <c r="AD83" s="44">
         <f t="shared" si="430"/>
-        <v>1654.5241930226655</v>
+        <v>43.056591043605074</v>
       </c>
       <c r="AE83" s="44">
         <f t="shared" si="430"/>
-        <v>1805.2120528332678</v>
+        <v>57.151828651456547</v>
       </c>
       <c r="AF83" s="45">
         <f t="shared" si="430"/>
-        <v>2078.4561924132377</v>
+        <v>77.197831805833843</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
@@ -18859,126 +18859,126 @@
       </c>
       <c r="B84" s="17">
         <f>AF83-$AF$3</f>
-        <v>2023.676291649833</v>
+        <v>22.41793104242921</v>
       </c>
       <c r="C84" s="28">
         <f>((AF83-AA83)-($AF$3-$AA$3))</f>
-        <v>916.12185523101732</v>
+        <v>15.351901318237871</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="5">
         <f>SUM(F84:AA84)</f>
-        <v>4471066.3940959033</v>
+        <v>110.68827122160596</v>
       </c>
       <c r="F84" s="3">
         <f>(F83-F$3)^2</f>
-        <v>12.071502883077038</v>
+        <v>2.7514978311879233E-8</v>
       </c>
       <c r="G84" s="3">
         <f t="shared" ref="G84" si="431">(G83-G$3)^2</f>
-        <v>31.021714841888947</v>
+        <v>7.9675441747655815E-8</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" ref="H84" si="432">(H83-H$3)^2</f>
-        <v>74.18331081019322</v>
+        <v>1.9359908174685726E-7</v>
       </c>
       <c r="I84" s="3">
         <f t="shared" ref="I84" si="433">(I83-I$3)^2</f>
-        <v>169.02643894215203</v>
+        <v>3.6044225969189956E-7</v>
       </c>
       <c r="J84" s="3">
         <f t="shared" ref="J84" si="434">(J83-J$3)^2</f>
-        <v>367.17616648866607</v>
+        <v>1.9027171174892233E-6</v>
       </c>
       <c r="K84" s="3">
         <f t="shared" ref="K84" si="435">(K83-K$3)^2</f>
-        <v>782.28500735234672</v>
+        <v>4.780084367009817E-6</v>
       </c>
       <c r="L84" s="3">
         <f t="shared" ref="L84" si="436">(L83-L$3)^2</f>
-        <v>1512.0478933390564</v>
+        <v>8.5162622228508409E-6</v>
       </c>
       <c r="M84" s="3">
         <f t="shared" ref="M84" si="437">(M83-M$3)^2</f>
-        <v>2918.8063916783158</v>
+        <v>7.7965409327537302E-6</v>
       </c>
       <c r="N84" s="3">
         <f t="shared" ref="N84" si="438">(N83-N$3)^2</f>
-        <v>5424.4938540637113</v>
+        <v>1.6100725189383722E-6</v>
       </c>
       <c r="O84" s="3">
         <f t="shared" ref="O84" si="439">(O83-O$3)^2</f>
-        <v>9958.13908236106</v>
+        <v>2.5059706866228076E-6</v>
       </c>
       <c r="P84" s="3">
         <f t="shared" ref="P84" si="440">(P83-P$3)^2</f>
-        <v>17480.030313425115</v>
+        <v>4.5729949602124577E-4</v>
       </c>
       <c r="Q84" s="3">
         <f t="shared" ref="Q84" si="441">(Q83-Q$3)^2</f>
-        <v>29580.197928580008</v>
+        <v>1.6391120111815195E-3</v>
       </c>
       <c r="R84" s="3">
         <f t="shared" ref="R84" si="442">(R83-R$3)^2</f>
-        <v>49440.489268282261</v>
+        <v>5.1003610086204753E-3</v>
       </c>
       <c r="S84" s="3">
         <f t="shared" ref="S84" si="443">(S83-S$3)^2</f>
-        <v>76243.026320328514</v>
+        <v>2.1529194205873511E-2</v>
       </c>
       <c r="T84" s="3">
         <f t="shared" ref="T84" si="444">(T83-T$3)^2</f>
-        <v>108766.83876366944</v>
+        <v>7.8410232710261638E-2</v>
       </c>
       <c r="U84" s="3">
         <f t="shared" ref="U84" si="445">(U83-U$3)^2</f>
-        <v>174489.77363076038</v>
+        <v>0.27425427579223016</v>
       </c>
       <c r="V84" s="3">
         <f t="shared" ref="V84" si="446">(V83-V$3)^2</f>
-        <v>257168.8501373746</v>
+        <v>1.3387327915264831</v>
       </c>
       <c r="W84" s="3">
         <f t="shared" ref="W84" si="447">(W83-W$3)^2</f>
-        <v>366471.56882759405</v>
+        <v>4.673680555341365</v>
       </c>
       <c r="X84" s="3">
         <f t="shared" ref="X84" si="448">(X83-X$3)^2</f>
-        <v>514797.46693760261</v>
+        <v>9.8296480522604579</v>
       </c>
       <c r="Y84" s="3">
         <f t="shared" ref="Y84" si="449">(Y83-Y$3)^2</f>
-        <v>705954.53129824915</v>
+        <v>16.443899666548045</v>
       </c>
       <c r="Z84" s="3">
         <f t="shared" ref="Z84" si="450">(Z83-Z$3)^2</f>
-        <v>922747.5396762765</v>
+        <v>28.092115844670239</v>
       </c>
       <c r="AA84" s="3">
         <f t="shared" ref="AA84" si="451">(AA83-AA$3)^2</f>
-        <v>1226676.8296310003</v>
+        <v>49.928776063155574</v>
       </c>
       <c r="AB84" s="46">
         <f t="shared" ref="AB84" si="452">(AB83-AB$3)^2</f>
-        <v>1613635.3551554179</v>
+        <v>89.763138414177604</v>
       </c>
       <c r="AC84" s="47">
         <f t="shared" ref="AC84" si="453">(AC83-AC$3)^2</f>
-        <v>2139102.9112934158</v>
+        <v>170.55284512758064</v>
       </c>
       <c r="AD84" s="47">
         <f t="shared" ref="AD84" si="454">(AD83-AD$3)^2</f>
-        <v>2653652.4661203371</v>
+        <v>307.50839874714586</v>
       </c>
       <c r="AE84" s="47">
         <f t="shared" ref="AE84" si="455">(AE83-AE$3)^2</f>
-        <v>3128075.8180698422</v>
+        <v>423.391839712977</v>
       </c>
       <c r="AF84" s="48">
         <f t="shared" ref="AF84" si="456">(AF83-AF$3)^2</f>
-        <v>4095265.7333856202</v>
+        <v>502.5636322231112</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18987,126 +18987,126 @@
       </c>
       <c r="B85" s="20">
         <f>(B84/$AF$3)*100</f>
-        <v>3694.19488434294</v>
+        <v>40.923643033331977</v>
       </c>
       <c r="C85" s="29">
         <f>((C84)/($AF$3-$AA$3))*100</f>
-        <v>1942.2526441989899</v>
+        <v>32.547276062211701</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="5">
         <f>SUM(F85:AA85)</f>
-        <v>6632.6784284575788</v>
+        <v>23.972813494362374</v>
       </c>
       <c r="F85">
         <f>SQRT(F84)</f>
-        <v>3.4744068390269205</v>
+        <v>1.6587639467953007E-4</v>
       </c>
       <c r="G85">
         <f t="shared" ref="G85" si="457">SQRT(G84)</f>
-        <v>5.5697140718253166</v>
+        <v>2.8226838602233835E-4</v>
       </c>
       <c r="H85">
         <f t="shared" ref="H85" si="458">SQRT(H84)</f>
-        <v>8.612973401224064</v>
+        <v>4.3999895652928231E-4</v>
       </c>
       <c r="I85">
         <f t="shared" ref="I85" si="459">SQRT(I84)</f>
-        <v>13.001016842622427</v>
+        <v>6.0036843662196265E-4</v>
       </c>
       <c r="J85">
         <f t="shared" ref="J85" si="460">SQRT(J84)</f>
-        <v>19.161841416958499</v>
+        <v>1.3793901251963577E-3</v>
       </c>
       <c r="K85">
         <f t="shared" ref="K85" si="461">SQRT(K84)</f>
-        <v>27.969358365045608</v>
+        <v>2.1863404051084582E-3</v>
       </c>
       <c r="L85">
         <f t="shared" ref="L85" si="462">SQRT(L84)</f>
-        <v>38.885060027458572</v>
+        <v>2.9182635629515785E-3</v>
       </c>
       <c r="M85">
         <f t="shared" ref="M85" si="463">SQRT(M84)</f>
-        <v>54.025978859048131</v>
+        <v>2.7922286677050162E-3</v>
       </c>
       <c r="N85">
         <f t="shared" ref="N85" si="464">SQRT(N84)</f>
-        <v>73.651163290634528</v>
+        <v>1.2688863301881584E-3</v>
       </c>
       <c r="O85">
         <f t="shared" ref="O85" si="465">SQRT(O84)</f>
-        <v>99.790475910084027</v>
+        <v>1.583025800997194E-3</v>
       </c>
       <c r="P85">
         <f t="shared" ref="P85" si="466">SQRT(P84)</f>
-        <v>132.21206568776208</v>
+        <v>2.1384562095615747E-2</v>
       </c>
       <c r="Q85">
         <f t="shared" ref="Q85" si="467">SQRT(Q84)</f>
-        <v>171.98894711166764</v>
+        <v>4.0485948317675845E-2</v>
       </c>
       <c r="R85">
         <f t="shared" ref="R85" si="468">SQRT(R84)</f>
-        <v>222.35217396796969</v>
+        <v>7.1416811806608083E-2</v>
       </c>
       <c r="S85">
         <f t="shared" ref="S85" si="469">SQRT(S84)</f>
-        <v>276.12139779511568</v>
+        <v>0.14672830063036071</v>
       </c>
       <c r="T85">
         <f t="shared" ref="T85" si="470">SQRT(T84)</f>
-        <v>329.79817883619285</v>
+        <v>0.28001827210069996</v>
       </c>
       <c r="U85">
         <f t="shared" ref="U85" si="471">SQRT(U84)</f>
-        <v>417.71973095696637</v>
+        <v>0.52369292127374623</v>
       </c>
       <c r="V85">
         <f t="shared" ref="V85" si="472">SQRT(V84)</f>
-        <v>507.11818162768981</v>
+        <v>1.1570362101189759</v>
       </c>
       <c r="W85">
         <f t="shared" ref="W85" si="473">SQRT(W84)</f>
-        <v>605.36895264590009</v>
+        <v>2.1618696897226171</v>
       </c>
       <c r="X85">
         <f t="shared" ref="X85" si="474">SQRT(X84)</f>
-        <v>717.49387937292022</v>
+        <v>3.1352269538680062</v>
       </c>
       <c r="Y85">
         <f t="shared" ref="Y85" si="475">SQRT(Y84)</f>
-        <v>840.21100403306377</v>
+        <v>4.0551078489416339</v>
       </c>
       <c r="Z85">
         <f t="shared" ref="Z85" si="476">SQRT(Z84)</f>
-        <v>960.59749097958638</v>
+        <v>5.3001996042290935</v>
       </c>
       <c r="AA85">
         <f t="shared" ref="AA85" si="477">SQRT(AA84)</f>
-        <v>1107.5544364188156</v>
+        <v>7.0660297241913419</v>
       </c>
       <c r="AB85" s="43">
         <f t="shared" ref="AB85" si="478">SQRT(AB84)</f>
-        <v>1270.2894769128091</v>
+        <v>9.4743410543518856</v>
       </c>
       <c r="AC85" s="44">
         <f t="shared" ref="AC85" si="479">SQRT(AC84)</f>
-        <v>1462.5672330848301</v>
+        <v>13.059588244947872</v>
       </c>
       <c r="AD85" s="44">
         <f t="shared" ref="AD85" si="480">SQRT(AD84)</f>
-        <v>1629.0035193701508</v>
+        <v>17.535917391090376</v>
       </c>
       <c r="AE85" s="44">
         <f t="shared" ref="AE85" si="481">SQRT(AE84)</f>
-        <v>1768.6367117273808</v>
+        <v>20.576487545569506</v>
       </c>
       <c r="AF85" s="45">
         <f t="shared" ref="AF85" si="482">SQRT(AF84)</f>
-        <v>2023.676291649833</v>
+        <v>22.41793104242921</v>
       </c>
     </row>
   </sheetData>
@@ -19137,115 +19137,115 @@
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="61">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>0.63888277948860384</v>
       </c>
       <c r="B2" s="61">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>0.6992299715988195</v>
       </c>
       <c r="C2" s="61">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>0.74965579192971099</v>
       </c>
       <c r="D2" s="61">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>0.81185196528479286</v>
       </c>
       <c r="E2" s="61">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>0.90528789922853969</v>
       </c>
       <c r="F2" s="61">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>1.0594311355048751</v>
       </c>
       <c r="G2" s="61">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>1.423788417945723</v>
       </c>
       <c r="H2" s="61">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>1.7994765721321591</v>
       </c>
       <c r="I2" s="61">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>2.255640902039568</v>
       </c>
       <c r="J2" s="61">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>2.9718345488807878</v>
       </c>
       <c r="K2" s="61">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>4.1876869395573308</v>
       </c>
       <c r="L2" s="61">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>5.7628250982908593</v>
       </c>
       <c r="M2" s="61">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>7.8187626848272016</v>
       </c>
       <c r="N2" s="61">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>12.698194298744079</v>
       </c>
       <c r="O2" s="61">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>21.073503873656769</v>
       </c>
       <c r="P2" s="61">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>33.912263179829672</v>
       </c>
       <c r="Q2" s="61">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>65.648612993412343</v>
       </c>
       <c r="R2" s="61">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>101.52151966290219</v>
       </c>
       <c r="S2" s="61">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>138.59293640973411</v>
       </c>
       <c r="T2" s="61">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>197.26150234678809</v>
       </c>
       <c r="U2" s="61">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>255.9794773336148</v>
       </c>
       <c r="V2" s="61">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>328.41494798557272</v>
       </c>
       <c r="W2" s="61">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>445.47996089304161</v>
       </c>
       <c r="X2" s="61">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>575.760244320575</v>
       </c>
       <c r="Y2" s="61">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>705.2251576877859</v>
       </c>
       <c r="Z2" s="61">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>854.37473965683262</v>
       </c>
       <c r="AA2" s="61">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>1059.2936809324981</v>
       </c>
       <c r="AB2" s="61">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>1322.6156827866339</v>
       </c>
       <c r="AC2" s="60">
         <f t="shared" ref="AC2" si="0">E8</f>
@@ -19652,7 +19652,7 @@
       </c>
       <c r="B8">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>0.63888277948860384</v>
       </c>
       <c r="C8">
         <f>A8*$A$5+$B$5</f>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="B9">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>0.6992299715988195</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C35" si="1">A9*$A$5+$B$5</f>
@@ -19712,7 +19712,7 @@
       </c>
       <c r="B10">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>0.74965579192971099</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -19742,7 +19742,7 @@
       </c>
       <c r="B11">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>0.81185196528479286</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -19772,7 +19772,7 @@
       </c>
       <c r="B12">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>0.90528789922853969</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -19802,7 +19802,7 @@
       </c>
       <c r="B13">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>1.0594311355048751</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -19826,7 +19826,7 @@
       </c>
       <c r="B14">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>1.423788417945723</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -19853,7 +19853,7 @@
       </c>
       <c r="B15">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>1.7994765721321591</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -19893,7 +19893,7 @@
       </c>
       <c r="B16">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>2.255640902039568</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -19935,7 +19935,7 @@
       </c>
       <c r="B17">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>2.9718345488807878</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -19973,7 +19973,7 @@
       </c>
       <c r="B18">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>4.1876869395573308</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -20009,7 +20009,7 @@
       </c>
       <c r="B19">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>5.7628250982908593</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -20033,7 +20033,7 @@
       </c>
       <c r="B20">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>7.8187626848272016</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -20082,7 +20082,7 @@
       </c>
       <c r="B21">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>12.698194298744079</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -20133,7 +20133,7 @@
       </c>
       <c r="B22">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>21.073503873656769</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -20184,7 +20184,7 @@
       </c>
       <c r="B23">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>33.912263179829672</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -20208,7 +20208,7 @@
       </c>
       <c r="B24">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>65.648612993412343</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -20232,7 +20232,7 @@
       </c>
       <c r="B25">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>101.52151966290219</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -20256,7 +20256,7 @@
       </c>
       <c r="B26">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>138.59293640973411</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -20280,7 +20280,7 @@
       </c>
       <c r="B27">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>197.26150234678809</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -20304,7 +20304,7 @@
       </c>
       <c r="B28">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>255.9794773336148</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="B29">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>328.41494798557272</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -20352,7 +20352,7 @@
       </c>
       <c r="B30">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>445.47996089304161</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -20372,7 +20372,7 @@
       </c>
       <c r="B31">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>575.760244320575</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B32">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>705.2251576877859</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -20412,7 +20412,7 @@
       </c>
       <c r="B33">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>854.37473965683262</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -20432,7 +20432,7 @@
       </c>
       <c r="B34">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>1059.2936809324981</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -20452,7 +20452,7 @@
       </c>
       <c r="B35">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>1322.6156827866339</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
